--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1253770.356439749</v>
+        <v>1187090.810088522</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14160985.62669795</v>
+        <v>14160985.62669794</v>
       </c>
     </row>
     <row r="9">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>267.8979041910021</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>252.5255188331557</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>154.3826891266381</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>142.9644039874957</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>206.5152850883027</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3368593692809</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>267.8979041910021</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>111.6674443827257</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>87.37174690586549</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>96.50633282204441</v>
       </c>
       <c r="S12" t="n">
-        <v>170.5907644822579</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9276751682025</v>
+        <v>16.99488747578498</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.39239737630744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>148.8085263044658</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>16.54103303353221</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.349559337998</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1612,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>151.7626571843025</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>267.8979041910021</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>267.8979041910021</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335631</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>206.5152850883027</v>
       </c>
       <c r="T14" t="n">
-        <v>151.7626571843025</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>153.5661374320117</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>44.65758579695381</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.6674443827257</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>96.50633282204441</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.9276751682025</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9375128721617</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,55 +1764,55 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>165.349559337998</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,73 +1843,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>93.00007002393876</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>142.9644039874957</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>267.8979041910021</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>206.2382283808531</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>206.5152850883027</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>267.8979041910021</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>91.1088647332808</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>88.13784380159107</v>
+        <v>24.35394059984514</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2847051892507</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>87.37174690586549</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>170.5907644822579</v>
       </c>
       <c r="T18" t="n">
-        <v>199.9276751682025</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>165.349559337998</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>154.3826891266382</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>267.8979041910021</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>29.44918892313189</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>142.9644039874957</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>206.5152850883027</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>87.48340921123167</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>96.50633282204441</v>
       </c>
       <c r="S21" t="n">
-        <v>170.5907644822579</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.9276751682025</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>134.0598417590332</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.03333950080692</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.31621983719111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>165.349559337998</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>267.8979041910021</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>267.8979041910021</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>206.2382283808531</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>142.9644039874957</v>
       </c>
       <c r="S23" t="n">
-        <v>206.5152850883027</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.6146781262929</v>
+        <v>154.6597458340877</v>
       </c>
       <c r="U23" t="n">
-        <v>74.73241498784104</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.2847051892507</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>111.6674443827257</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>64.03299093121024</v>
+        <v>96.50633282204441</v>
       </c>
       <c r="S24" t="n">
         <v>170.5907644822579</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>71.98628137903988</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.560761846123317</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>161.7887974918747</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.349559337998</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>252.5255188331557</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>235.9644740114345</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>267.8979041910021</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>251.3368593692809</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>267.8979041910021</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>111.6674443827257</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>170.5907644822579</v>
       </c>
       <c r="T27" t="n">
-        <v>199.9276751682025</v>
+        <v>127.8351950157285</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>230.5661745810776</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>165.349559337998</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>165.349559337998</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>267.8979041910021</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>235.9644740114345</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>235.9644740114345</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>267.8979041910021</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>267.8979041910021</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3.335748215903999</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.2847051892507</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>176.4327258980078</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="C32" t="n">
-        <v>138.283296088648</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>10.72976394280606</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.620031942335631</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>142.9644039874957</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="Y32" t="n">
         <v>267.8979041910021</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>161.1777331311541</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.12328035738341</v>
+        <v>96.50633282204441</v>
       </c>
       <c r="S33" t="n">
         <v>170.5907644822579</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.03333950080692</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.349559337998</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.31621983719111</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>93.00007002393876</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>142.9644039874957</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>206.5152850883027</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.6146781262929</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3368593692809</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>216.2269600130685</v>
       </c>
     </row>
     <row r="36">
@@ -3350,13 +3350,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>96.50633282204441</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>89.93983932775757</v>
       </c>
       <c r="T36" t="n">
-        <v>199.9276751682025</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9375128721617</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>111.7775795842911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>165.349559337998</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>267.8979041910021</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>222.6146781262929</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3368593692809</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>91.29345980956222</v>
+        <v>74.73241498784104</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>53.5511691304313</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>87.37174690586549</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>96.50633282204441</v>
+        <v>96.50633282204443</v>
       </c>
       <c r="S39" t="n">
         <v>170.5907644822579</v>
       </c>
       <c r="T39" t="n">
-        <v>128.3048211499313</v>
+        <v>199.9276751682025</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9375128721617</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.03333950080692</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>83.31621983719111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>165.349559337998</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>142.9644039874957</v>
+        <v>91.29345980956228</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>206.5152850883027</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.6146781262929</v>
       </c>
       <c r="U41" t="n">
         <v>251.3368593692809</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>267.8979041910021</v>
-      </c>
-      <c r="X41" t="n">
-        <v>109.5611148456599</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>68.8686201285892</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>111.6674443827257</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>96.50633282204443</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>16.53397481784315</v>
       </c>
       <c r="T42" t="n">
         <v>199.9276751682025</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9375128721617</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>165.349559337998</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>267.8979041910021</v>
+        <v>235.9644740114345</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>235.9644740114345</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>267.8979041910021</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>109.4104251384369</v>
+        <v>91.64097212480027</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>111.6674443827257</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>96.50633282204443</v>
       </c>
       <c r="S45" t="n">
-        <v>170.5907644822579</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.9276751682025</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9375128721617</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>165.349559337998</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.349559337998</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>547.1120576122072</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="C11" t="n">
-        <v>547.1120576122072</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="D11" t="n">
-        <v>276.5081139849324</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="E11" t="n">
-        <v>276.5081139849324</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="F11" t="n">
-        <v>276.5081139849324</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="G11" t="n">
-        <v>21.43183233528017</v>
+        <v>177.3739425642076</v>
       </c>
       <c r="H11" t="n">
         <v>21.43183233528017</v>
@@ -5044,7 +5044,7 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K11" t="n">
-        <v>138.2891553616988</v>
+        <v>138.2891553616987</v>
       </c>
       <c r="L11" t="n">
         <v>335.5376253495386</v>
@@ -5065,28 +5065,28 @@
         <v>1071.591616764008</v>
       </c>
       <c r="R11" t="n">
-        <v>1071.591616764008</v>
+        <v>927.1831278877498</v>
       </c>
       <c r="S11" t="n">
-        <v>1071.591616764008</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="T11" t="n">
-        <v>1071.591616764008</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="U11" t="n">
-        <v>817.716001239482</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="V11" t="n">
-        <v>547.1120576122072</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="W11" t="n">
-        <v>547.1120576122072</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="X11" t="n">
-        <v>547.1120576122072</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="Y11" t="n">
-        <v>547.1120576122072</v>
+        <v>447.9778861914824</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.2272307016698</v>
+        <v>702.7065627652718</v>
       </c>
       <c r="C12" t="n">
-        <v>134.2272307016698</v>
+        <v>528.2535334841448</v>
       </c>
       <c r="D12" t="n">
-        <v>134.2272307016698</v>
+        <v>528.2535334841448</v>
       </c>
       <c r="E12" t="n">
-        <v>134.2272307016698</v>
+        <v>369.0160784786893</v>
       </c>
       <c r="F12" t="n">
-        <v>134.2272307016698</v>
+        <v>222.4815205055743</v>
       </c>
       <c r="G12" t="n">
-        <v>134.2272307016698</v>
+        <v>222.4815205055743</v>
       </c>
       <c r="H12" t="n">
-        <v>21.43183233528017</v>
+        <v>109.6861221391847</v>
       </c>
       <c r="I12" t="n">
         <v>21.43183233528017</v>
@@ -5123,19 +5123,19 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K12" t="n">
-        <v>84.78573623810212</v>
+        <v>156.1912680107897</v>
       </c>
       <c r="L12" t="n">
-        <v>84.78573623810212</v>
+        <v>398.796355910615</v>
       </c>
       <c r="M12" t="n">
-        <v>350.0046613871942</v>
+        <v>664.015281059707</v>
       </c>
       <c r="N12" t="n">
-        <v>615.2235865362862</v>
+        <v>664.015281059707</v>
       </c>
       <c r="O12" t="n">
-        <v>877.8299366723944</v>
+        <v>926.6216311958152</v>
       </c>
       <c r="P12" t="n">
         <v>1071.591616764008</v>
@@ -5147,25 +5147,25 @@
         <v>974.1104724993169</v>
       </c>
       <c r="S12" t="n">
-        <v>801.7965689818847</v>
+        <v>974.1104724993169</v>
       </c>
       <c r="T12" t="n">
-        <v>599.8494223473367</v>
+        <v>956.9439194934735</v>
       </c>
       <c r="U12" t="n">
-        <v>599.8494223473367</v>
+        <v>956.9439194934735</v>
       </c>
       <c r="V12" t="n">
-        <v>364.697314115594</v>
+        <v>956.9439194934735</v>
       </c>
       <c r="W12" t="n">
-        <v>364.697314115594</v>
+        <v>702.7065627652718</v>
       </c>
       <c r="X12" t="n">
-        <v>156.8458139100612</v>
+        <v>702.7065627652718</v>
       </c>
       <c r="Y12" t="n">
-        <v>134.2272307016698</v>
+        <v>702.7065627652718</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="C13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="D13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="E13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="F13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="G13" t="n">
-        <v>38.13994651056522</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="H13" t="n">
-        <v>38.13994651056522</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="I13" t="n">
-        <v>38.13994651056522</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="J13" t="n">
-        <v>38.13994651056522</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="K13" t="n">
         <v>21.43183233528017</v>
@@ -5223,28 +5223,28 @@
         <v>188.4515892423489</v>
       </c>
       <c r="R13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="S13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="T13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="U13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="V13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="W13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="X13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="Y13" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>565.2862165012799</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="C14" t="n">
-        <v>565.2862165012799</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="D14" t="n">
-        <v>294.6822728740051</v>
+        <v>447.9778861914824</v>
       </c>
       <c r="E14" t="n">
         <v>294.6822728740051</v>
       </c>
       <c r="F14" t="n">
-        <v>24.0783292467303</v>
+        <v>294.6822728740051</v>
       </c>
       <c r="G14" t="n">
-        <v>24.0783292467303</v>
+        <v>294.6822728740051</v>
       </c>
       <c r="H14" t="n">
         <v>24.0783292467303</v>
@@ -5290,10 +5290,10 @@
         <v>571.6210993953117</v>
       </c>
       <c r="N14" t="n">
-        <v>796.8926533230056</v>
+        <v>796.8926533230057</v>
       </c>
       <c r="O14" t="n">
-        <v>964.4225559170834</v>
+        <v>964.4225559170835</v>
       </c>
       <c r="P14" t="n">
         <v>1069.731068932313</v>
@@ -5308,22 +5308,22 @@
         <v>718.5818298187572</v>
       </c>
       <c r="T14" t="n">
-        <v>565.2862165012799</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="U14" t="n">
-        <v>565.2862165012799</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="V14" t="n">
-        <v>565.2862165012799</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="W14" t="n">
-        <v>565.2862165012799</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="X14" t="n">
-        <v>565.2862165012799</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="Y14" t="n">
-        <v>565.2862165012799</v>
+        <v>447.9778861914824</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>329.6036970019869</v>
+        <v>179.3359032238454</v>
       </c>
       <c r="C15" t="n">
-        <v>329.6036970019869</v>
+        <v>179.3359032238454</v>
       </c>
       <c r="D15" t="n">
-        <v>180.6692873407357</v>
+        <v>179.3359032238454</v>
       </c>
       <c r="E15" t="n">
-        <v>21.43183233528017</v>
+        <v>179.3359032238454</v>
       </c>
       <c r="F15" t="n">
-        <v>21.43183233528017</v>
+        <v>179.3359032238454</v>
       </c>
       <c r="G15" t="n">
-        <v>21.43183233528017</v>
+        <v>134.2272307016698</v>
       </c>
       <c r="H15" t="n">
         <v>21.43183233528017</v>
@@ -5372,37 +5372,37 @@
         <v>933.995958180715</v>
       </c>
       <c r="O15" t="n">
-        <v>933.995958180715</v>
+        <v>994.7648343330123</v>
       </c>
       <c r="P15" t="n">
-        <v>1071.591616764008</v>
+        <v>994.7648343330123</v>
       </c>
       <c r="Q15" t="n">
         <v>1071.591616764008</v>
       </c>
       <c r="R15" t="n">
-        <v>974.1104724993169</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="S15" t="n">
-        <v>974.1104724993169</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="T15" t="n">
-        <v>974.1104724993169</v>
+        <v>869.6444701294603</v>
       </c>
       <c r="U15" t="n">
-        <v>974.1104724993169</v>
+        <v>641.4247601575798</v>
       </c>
       <c r="V15" t="n">
-        <v>738.9583642675741</v>
+        <v>641.4247601575798</v>
       </c>
       <c r="W15" t="n">
-        <v>484.7210075393725</v>
+        <v>387.1874034293782</v>
       </c>
       <c r="X15" t="n">
-        <v>484.7210075393725</v>
+        <v>179.3359032238454</v>
       </c>
       <c r="Y15" t="n">
-        <v>484.7210075393725</v>
+        <v>179.3359032238454</v>
       </c>
     </row>
     <row r="16">
@@ -5460,28 +5460,28 @@
         <v>188.4515892423489</v>
       </c>
       <c r="R16" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="S16" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="T16" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="U16" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="V16" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="W16" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="X16" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>500.3572187714976</v>
+        <v>385.9752406332002</v>
       </c>
       <c r="C17" t="n">
-        <v>500.3572187714976</v>
+        <v>115.3712970059254</v>
       </c>
       <c r="D17" t="n">
-        <v>500.3572187714976</v>
+        <v>115.3712970059254</v>
       </c>
       <c r="E17" t="n">
-        <v>229.7532751442228</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="F17" t="n">
-        <v>229.7532751442228</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="G17" t="n">
-        <v>229.7532751442228</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="H17" t="n">
-        <v>229.7532751442228</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="I17" t="n">
         <v>21.43183233528017</v>
@@ -5518,7 +5518,7 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K17" t="n">
-        <v>138.2891553616988</v>
+        <v>138.2891553616987</v>
       </c>
       <c r="L17" t="n">
         <v>335.5376253495386</v>
@@ -5527,10 +5527,10 @@
         <v>571.6210993953118</v>
       </c>
       <c r="N17" t="n">
-        <v>796.8926533230057</v>
+        <v>796.8926533230058</v>
       </c>
       <c r="O17" t="n">
-        <v>964.4225559170835</v>
+        <v>964.4225559170836</v>
       </c>
       <c r="P17" t="n">
         <v>1069.731068932313</v>
@@ -5539,28 +5539,28 @@
         <v>1071.591616764008</v>
       </c>
       <c r="R17" t="n">
-        <v>1071.591616764008</v>
+        <v>927.1831278877498</v>
       </c>
       <c r="S17" t="n">
-        <v>862.9903186950156</v>
+        <v>927.1831278877498</v>
       </c>
       <c r="T17" t="n">
-        <v>862.9903186950156</v>
+        <v>927.1831278877498</v>
       </c>
       <c r="U17" t="n">
-        <v>862.9903186950156</v>
+        <v>927.1831278877498</v>
       </c>
       <c r="V17" t="n">
-        <v>592.3863750677408</v>
+        <v>927.1831278877498</v>
       </c>
       <c r="W17" t="n">
-        <v>592.3863750677408</v>
+        <v>656.579184260475</v>
       </c>
       <c r="X17" t="n">
-        <v>500.3572187714976</v>
+        <v>656.579184260475</v>
       </c>
       <c r="Y17" t="n">
-        <v>500.3572187714976</v>
+        <v>656.579184260475</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.4599573873924</v>
+        <v>593.9450687763518</v>
       </c>
       <c r="C18" t="n">
-        <v>110.4599573873924</v>
+        <v>419.4920394952248</v>
       </c>
       <c r="D18" t="n">
-        <v>21.43183233528017</v>
+        <v>394.8920994953813</v>
       </c>
       <c r="E18" t="n">
-        <v>21.43183233528017</v>
+        <v>394.8920994953813</v>
       </c>
       <c r="F18" t="n">
-        <v>21.43183233528017</v>
+        <v>248.3575415222662</v>
       </c>
       <c r="G18" t="n">
-        <v>21.43183233528017</v>
+        <v>109.6861221391847</v>
       </c>
       <c r="H18" t="n">
-        <v>21.43183233528017</v>
+        <v>109.6861221391847</v>
       </c>
       <c r="I18" t="n">
         <v>21.43183233528017</v>
       </c>
       <c r="J18" t="n">
-        <v>26.19358430719606</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="K18" t="n">
-        <v>26.19358430719606</v>
+        <v>35.94232842989069</v>
       </c>
       <c r="L18" t="n">
-        <v>26.19358430719606</v>
+        <v>278.547416329716</v>
       </c>
       <c r="M18" t="n">
-        <v>291.4125094562881</v>
+        <v>543.766341478808</v>
       </c>
       <c r="N18" t="n">
-        <v>556.6314346053803</v>
+        <v>808.9852666279</v>
       </c>
       <c r="O18" t="n">
-        <v>819.2377847414884</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="P18" t="n">
-        <v>1012.999464833102</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="Q18" t="n">
         <v>1071.591616764008</v>
@@ -5624,22 +5624,22 @@
         <v>801.7965689818847</v>
       </c>
       <c r="T18" t="n">
-        <v>599.8494223473367</v>
+        <v>801.7965689818847</v>
       </c>
       <c r="U18" t="n">
-        <v>599.8494223473367</v>
+        <v>801.7965689818847</v>
       </c>
       <c r="V18" t="n">
-        <v>364.697314115594</v>
+        <v>801.7965689818847</v>
       </c>
       <c r="W18" t="n">
-        <v>110.4599573873924</v>
+        <v>801.7965689818847</v>
       </c>
       <c r="X18" t="n">
-        <v>110.4599573873924</v>
+        <v>593.9450687763518</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.4599573873924</v>
+        <v>593.9450687763518</v>
       </c>
     </row>
     <row r="19">
@@ -5697,16 +5697,16 @@
         <v>188.4515892423489</v>
       </c>
       <c r="R19" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="S19" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="T19" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="U19" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="V19" t="n">
         <v>21.43183233528017</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>447.9778861914824</v>
+        <v>862.9903186950156</v>
       </c>
       <c r="C20" t="n">
-        <v>292.035775962555</v>
+        <v>592.3863750677408</v>
       </c>
       <c r="D20" t="n">
-        <v>292.035775962555</v>
+        <v>321.782431440466</v>
       </c>
       <c r="E20" t="n">
-        <v>21.43183233528017</v>
+        <v>321.782431440466</v>
       </c>
       <c r="F20" t="n">
-        <v>21.43183233528017</v>
+        <v>321.782431440466</v>
       </c>
       <c r="G20" t="n">
-        <v>21.43183233528017</v>
+        <v>321.782431440466</v>
       </c>
       <c r="H20" t="n">
-        <v>21.43183233528017</v>
+        <v>51.17848781319117</v>
       </c>
       <c r="I20" t="n">
         <v>21.43183233528017</v>
@@ -5758,10 +5758,10 @@
         <v>138.2891553616987</v>
       </c>
       <c r="L20" t="n">
-        <v>335.5376253495386</v>
+        <v>335.5376253495385</v>
       </c>
       <c r="M20" t="n">
-        <v>571.6210993953118</v>
+        <v>571.6210993953117</v>
       </c>
       <c r="N20" t="n">
         <v>796.8926533230057</v>
@@ -5776,28 +5776,28 @@
         <v>1071.591616764008</v>
       </c>
       <c r="R20" t="n">
-        <v>927.1831278877498</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="S20" t="n">
-        <v>718.5818298187572</v>
+        <v>862.9903186950156</v>
       </c>
       <c r="T20" t="n">
-        <v>718.5818298187572</v>
+        <v>862.9903186950156</v>
       </c>
       <c r="U20" t="n">
-        <v>718.5818298187572</v>
+        <v>862.9903186950156</v>
       </c>
       <c r="V20" t="n">
-        <v>447.9778861914824</v>
+        <v>862.9903186950156</v>
       </c>
       <c r="W20" t="n">
-        <v>447.9778861914824</v>
+        <v>862.9903186950156</v>
       </c>
       <c r="X20" t="n">
-        <v>447.9778861914824</v>
+        <v>862.9903186950156</v>
       </c>
       <c r="Y20" t="n">
-        <v>447.9778861914824</v>
+        <v>862.9903186950156</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.43183233528017</v>
+        <v>650.591284256229</v>
       </c>
       <c r="C21" t="n">
-        <v>21.43183233528017</v>
+        <v>476.138254975102</v>
       </c>
       <c r="D21" t="n">
-        <v>21.43183233528017</v>
+        <v>327.2038453138507</v>
       </c>
       <c r="E21" t="n">
-        <v>21.43183233528017</v>
+        <v>167.9663903083952</v>
       </c>
       <c r="F21" t="n">
         <v>21.43183233528017</v>
@@ -5831,19 +5831,19 @@
         <v>21.43183233528017</v>
       </c>
       <c r="J21" t="n">
-        <v>26.19358430719606</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="K21" t="n">
-        <v>160.9530199827056</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="L21" t="n">
-        <v>160.9530199827056</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="M21" t="n">
-        <v>426.1719451317977</v>
+        <v>273.1778789561983</v>
       </c>
       <c r="N21" t="n">
-        <v>691.3908702808897</v>
+        <v>538.3968041052904</v>
       </c>
       <c r="O21" t="n">
         <v>801.0031542413985</v>
@@ -5858,25 +5858,25 @@
         <v>974.1104724993169</v>
       </c>
       <c r="S21" t="n">
-        <v>801.7965689818847</v>
+        <v>974.1104724993169</v>
       </c>
       <c r="T21" t="n">
-        <v>599.8494223473367</v>
+        <v>974.1104724993169</v>
       </c>
       <c r="U21" t="n">
-        <v>599.8494223473367</v>
+        <v>974.1104724993169</v>
       </c>
       <c r="V21" t="n">
-        <v>364.697314115594</v>
+        <v>738.9583642675741</v>
       </c>
       <c r="W21" t="n">
-        <v>229.283332540813</v>
+        <v>738.9583642675741</v>
       </c>
       <c r="X21" t="n">
-        <v>21.43183233528017</v>
+        <v>738.9583642675741</v>
       </c>
       <c r="Y21" t="n">
-        <v>21.43183233528017</v>
+        <v>738.9583642675741</v>
       </c>
     </row>
     <row r="22">
@@ -5931,10 +5931,10 @@
         <v>188.4515892423489</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.5896301506247</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="R22" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="S22" t="n">
         <v>21.43183233528017</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>292.035775962555</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="C23" t="n">
-        <v>292.035775962555</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="D23" t="n">
-        <v>292.035775962555</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="E23" t="n">
-        <v>21.43183233528017</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="F23" t="n">
-        <v>21.43183233528017</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="G23" t="n">
-        <v>21.43183233528017</v>
+        <v>500.3572187714976</v>
       </c>
       <c r="H23" t="n">
-        <v>21.43183233528017</v>
+        <v>229.7532751442228</v>
       </c>
       <c r="I23" t="n">
         <v>21.43183233528017</v>
@@ -5992,7 +5992,7 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K23" t="n">
-        <v>138.2891553616988</v>
+        <v>138.2891553616987</v>
       </c>
       <c r="L23" t="n">
         <v>335.5376253495386</v>
@@ -6013,28 +6013,28 @@
         <v>1071.591616764008</v>
       </c>
       <c r="R23" t="n">
-        <v>1071.591616764008</v>
+        <v>927.1831278877498</v>
       </c>
       <c r="S23" t="n">
-        <v>862.9903186950156</v>
+        <v>927.1831278877498</v>
       </c>
       <c r="T23" t="n">
-        <v>638.1270074563359</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="U23" t="n">
-        <v>562.6397195898298</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="V23" t="n">
-        <v>562.6397195898298</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="W23" t="n">
-        <v>562.6397195898298</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="X23" t="n">
-        <v>562.6397195898298</v>
+        <v>770.9611623987723</v>
       </c>
       <c r="Y23" t="n">
-        <v>562.6397195898298</v>
+        <v>770.9611623987723</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.43183233528017</v>
+        <v>272.8986500847514</v>
       </c>
       <c r="C24" t="n">
-        <v>21.43183233528017</v>
+        <v>272.8986500847514</v>
       </c>
       <c r="D24" t="n">
-        <v>21.43183233528017</v>
+        <v>272.8986500847514</v>
       </c>
       <c r="E24" t="n">
-        <v>21.43183233528017</v>
+        <v>272.8986500847514</v>
       </c>
       <c r="F24" t="n">
-        <v>21.43183233528017</v>
+        <v>272.8986500847514</v>
       </c>
       <c r="G24" t="n">
-        <v>21.43183233528017</v>
+        <v>134.2272307016698</v>
       </c>
       <c r="H24" t="n">
         <v>21.43183233528017</v>
@@ -6071,49 +6071,49 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K24" t="n">
-        <v>21.43183233528017</v>
+        <v>156.1912680107897</v>
       </c>
       <c r="L24" t="n">
-        <v>21.43183233528017</v>
+        <v>398.796355910615</v>
       </c>
       <c r="M24" t="n">
-        <v>286.6507574843722</v>
+        <v>398.796355910615</v>
       </c>
       <c r="N24" t="n">
-        <v>551.8696826334642</v>
+        <v>664.015281059707</v>
       </c>
       <c r="O24" t="n">
-        <v>814.4760327695724</v>
+        <v>926.6216311958152</v>
       </c>
       <c r="P24" t="n">
-        <v>994.7648343330123</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="Q24" t="n">
         <v>1071.591616764008</v>
       </c>
       <c r="R24" t="n">
-        <v>1006.911827944604</v>
+        <v>974.1104724993169</v>
       </c>
       <c r="S24" t="n">
-        <v>834.5979244271717</v>
+        <v>801.7965689818847</v>
       </c>
       <c r="T24" t="n">
-        <v>632.6507777926238</v>
+        <v>599.8494223473367</v>
       </c>
       <c r="U24" t="n">
-        <v>632.6507777926238</v>
+        <v>599.8494223473367</v>
       </c>
       <c r="V24" t="n">
-        <v>397.498669560881</v>
+        <v>599.8494223473367</v>
       </c>
       <c r="W24" t="n">
-        <v>397.498669560881</v>
+        <v>345.6120656191351</v>
       </c>
       <c r="X24" t="n">
-        <v>189.6471693553482</v>
+        <v>272.8986500847514</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.6471693553482</v>
+        <v>272.8986500847514</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="C25" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="D25" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="E25" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="F25" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="G25" t="n">
-        <v>21.43183233528017</v>
+        <v>184.8548601048506</v>
       </c>
       <c r="H25" t="n">
         <v>21.43183233528017</v>
@@ -6186,13 +6186,13 @@
         <v>188.4515892423489</v>
       </c>
       <c r="W25" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="X25" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>547.1120576122072</v>
+        <v>800.9876731367334</v>
       </c>
       <c r="C26" t="n">
-        <v>292.035775962555</v>
+        <v>530.3837295094586</v>
       </c>
       <c r="D26" t="n">
-        <v>292.035775962555</v>
+        <v>259.7797858821838</v>
       </c>
       <c r="E26" t="n">
-        <v>292.035775962555</v>
+        <v>259.7797858821838</v>
       </c>
       <c r="F26" t="n">
         <v>21.43183233528017</v>
@@ -6229,7 +6229,7 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K26" t="n">
-        <v>138.2891553616988</v>
+        <v>138.2891553616987</v>
       </c>
       <c r="L26" t="n">
         <v>335.5376253495386</v>
@@ -6259,19 +6259,19 @@
         <v>1071.591616764008</v>
       </c>
       <c r="U26" t="n">
-        <v>817.716001239482</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="V26" t="n">
-        <v>817.716001239482</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="W26" t="n">
-        <v>817.716001239482</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="X26" t="n">
-        <v>547.1120576122072</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="Y26" t="n">
-        <v>547.1120576122072</v>
+        <v>800.9876731367334</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.43183233528017</v>
+        <v>280.7617886747848</v>
       </c>
       <c r="C27" t="n">
-        <v>21.43183233528017</v>
+        <v>280.7617886747848</v>
       </c>
       <c r="D27" t="n">
-        <v>21.43183233528017</v>
+        <v>280.7617886747848</v>
       </c>
       <c r="E27" t="n">
-        <v>21.43183233528017</v>
+        <v>280.7617886747848</v>
       </c>
       <c r="F27" t="n">
-        <v>21.43183233528017</v>
+        <v>134.2272307016698</v>
       </c>
       <c r="G27" t="n">
-        <v>21.43183233528017</v>
+        <v>134.2272307016698</v>
       </c>
       <c r="H27" t="n">
         <v>21.43183233528017</v>
@@ -6311,19 +6311,19 @@
         <v>21.43183233528017</v>
       </c>
       <c r="L27" t="n">
-        <v>264.0369202351054</v>
+        <v>264.0369202351055</v>
       </c>
       <c r="M27" t="n">
         <v>529.2558453841975</v>
       </c>
       <c r="N27" t="n">
-        <v>794.4747705332895</v>
+        <v>538.3968041052904</v>
       </c>
       <c r="O27" t="n">
-        <v>1057.081120669398</v>
+        <v>801.0031542413985</v>
       </c>
       <c r="P27" t="n">
-        <v>1057.081120669398</v>
+        <v>994.7648343330123</v>
       </c>
       <c r="Q27" t="n">
         <v>1071.591616764008</v>
@@ -6335,22 +6335,22 @@
         <v>899.277713246576</v>
       </c>
       <c r="T27" t="n">
-        <v>697.3305666120281</v>
+        <v>770.1512536347291</v>
       </c>
       <c r="U27" t="n">
-        <v>697.3305666120281</v>
+        <v>770.1512536347291</v>
       </c>
       <c r="V27" t="n">
-        <v>462.1784583802853</v>
+        <v>534.9991454029864</v>
       </c>
       <c r="W27" t="n">
-        <v>229.283332540813</v>
+        <v>280.7617886747848</v>
       </c>
       <c r="X27" t="n">
-        <v>21.43183233528017</v>
+        <v>280.7617886747848</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.43183233528017</v>
+        <v>280.7617886747848</v>
       </c>
     </row>
     <row r="28">
@@ -6411,16 +6411,16 @@
         <v>188.4515892423489</v>
       </c>
       <c r="S28" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="T28" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="U28" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="V28" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="W28" t="n">
         <v>21.43183233528017</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.43183233528017</v>
+        <v>800.9876731367334</v>
       </c>
       <c r="C29" t="n">
-        <v>21.43183233528017</v>
+        <v>800.9876731367334</v>
       </c>
       <c r="D29" t="n">
-        <v>21.43183233528017</v>
+        <v>800.9876731367334</v>
       </c>
       <c r="E29" t="n">
-        <v>21.43183233528017</v>
+        <v>530.3837295094586</v>
       </c>
       <c r="F29" t="n">
-        <v>21.43183233528017</v>
+        <v>259.7797858821838</v>
       </c>
       <c r="G29" t="n">
         <v>21.43183233528017</v>
@@ -6466,7 +6466,7 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K29" t="n">
-        <v>138.2891553616988</v>
+        <v>138.2891553616987</v>
       </c>
       <c r="L29" t="n">
         <v>335.5376253495386</v>
@@ -6496,19 +6496,19 @@
         <v>1071.591616764008</v>
       </c>
       <c r="U29" t="n">
-        <v>833.2436632171047</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="V29" t="n">
-        <v>562.6397195898298</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="W29" t="n">
-        <v>562.6397195898298</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="X29" t="n">
-        <v>292.035775962555</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="Y29" t="n">
-        <v>292.035775962555</v>
+        <v>800.9876731367334</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>180.6692873407357</v>
+        <v>312.4071040219403</v>
       </c>
       <c r="C30" t="n">
-        <v>180.6692873407357</v>
+        <v>312.4071040219403</v>
       </c>
       <c r="D30" t="n">
-        <v>180.6692873407357</v>
+        <v>163.472694360689</v>
       </c>
       <c r="E30" t="n">
-        <v>21.43183233528017</v>
+        <v>163.472694360689</v>
       </c>
       <c r="F30" t="n">
-        <v>21.43183233528017</v>
+        <v>160.1032517183617</v>
       </c>
       <c r="G30" t="n">
         <v>21.43183233528017</v>
@@ -6548,10 +6548,10 @@
         <v>156.1912680107897</v>
       </c>
       <c r="L30" t="n">
-        <v>350.0046613871942</v>
+        <v>398.796355910615</v>
       </c>
       <c r="M30" t="n">
-        <v>350.0046613871942</v>
+        <v>615.2235865362862</v>
       </c>
       <c r="N30" t="n">
         <v>615.2235865362862</v>
@@ -6575,19 +6575,19 @@
         <v>801.7965689818847</v>
       </c>
       <c r="U30" t="n">
-        <v>623.5816943374323</v>
+        <v>801.7965689818847</v>
       </c>
       <c r="V30" t="n">
-        <v>388.4295861056896</v>
+        <v>566.6444607501419</v>
       </c>
       <c r="W30" t="n">
-        <v>388.4295861056896</v>
+        <v>312.4071040219403</v>
       </c>
       <c r="X30" t="n">
-        <v>388.4295861056896</v>
+        <v>312.4071040219403</v>
       </c>
       <c r="Y30" t="n">
-        <v>180.6692873407357</v>
+        <v>312.4071040219403</v>
       </c>
     </row>
     <row r="31">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>431.7158730217953</v>
+        <v>34.9164746435041</v>
       </c>
       <c r="C32" t="n">
-        <v>292.035775962555</v>
+        <v>34.9164746435041</v>
       </c>
       <c r="D32" t="n">
-        <v>21.43183233528017</v>
+        <v>34.9164746435041</v>
       </c>
       <c r="E32" t="n">
-        <v>21.43183233528017</v>
+        <v>34.9164746435041</v>
       </c>
       <c r="F32" t="n">
-        <v>21.43183233528017</v>
+        <v>34.9164746435041</v>
       </c>
       <c r="G32" t="n">
-        <v>21.43183233528017</v>
+        <v>24.0783292467303</v>
       </c>
       <c r="H32" t="n">
-        <v>21.43183233528017</v>
+        <v>24.0783292467303</v>
       </c>
       <c r="I32" t="n">
-        <v>21.43183233528017</v>
+        <v>24.0783292467303</v>
       </c>
       <c r="J32" t="n">
         <v>21.43183233528017</v>
       </c>
       <c r="K32" t="n">
-        <v>138.2891553616988</v>
+        <v>138.2891553616987</v>
       </c>
       <c r="L32" t="n">
         <v>335.5376253495386</v>
@@ -6724,28 +6724,28 @@
         <v>1071.591616764008</v>
       </c>
       <c r="R32" t="n">
-        <v>927.1831278877498</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="S32" t="n">
-        <v>927.1831278877498</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="T32" t="n">
-        <v>702.3198166490702</v>
+        <v>846.7283055253286</v>
       </c>
       <c r="U32" t="n">
-        <v>702.3198166490702</v>
+        <v>846.7283055253286</v>
       </c>
       <c r="V32" t="n">
-        <v>702.3198166490702</v>
+        <v>846.7283055253286</v>
       </c>
       <c r="W32" t="n">
-        <v>702.3198166490702</v>
+        <v>846.7283055253286</v>
       </c>
       <c r="X32" t="n">
-        <v>702.3198166490702</v>
+        <v>576.1243618980537</v>
       </c>
       <c r="Y32" t="n">
-        <v>431.7158730217953</v>
+        <v>305.5204182707789</v>
       </c>
     </row>
     <row r="33">
@@ -6779,52 +6779,52 @@
         <v>21.43183233528017</v>
       </c>
       <c r="J33" t="n">
-        <v>26.19358430719606</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="K33" t="n">
-        <v>160.9530199827056</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="L33" t="n">
-        <v>403.5581078825309</v>
+        <v>264.0369202351055</v>
       </c>
       <c r="M33" t="n">
-        <v>403.5581078825309</v>
+        <v>529.2558453841975</v>
       </c>
       <c r="N33" t="n">
-        <v>668.777033031623</v>
+        <v>794.4747705332895</v>
       </c>
       <c r="O33" t="n">
-        <v>801.0031542413985</v>
+        <v>1057.081120669398</v>
       </c>
       <c r="P33" t="n">
-        <v>994.7648343330123</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="Q33" t="n">
         <v>1071.591616764008</v>
       </c>
       <c r="R33" t="n">
-        <v>1006.820626504025</v>
+        <v>974.1104724993169</v>
       </c>
       <c r="S33" t="n">
-        <v>834.5067229865928</v>
+        <v>801.7965689818847</v>
       </c>
       <c r="T33" t="n">
-        <v>632.5595763520448</v>
+        <v>599.8494223473367</v>
       </c>
       <c r="U33" t="n">
-        <v>632.5595763520448</v>
+        <v>599.8494223473367</v>
       </c>
       <c r="V33" t="n">
-        <v>397.4074681203022</v>
+        <v>599.8494223473367</v>
       </c>
       <c r="W33" t="n">
-        <v>397.4074681203022</v>
+        <v>599.8494223473367</v>
       </c>
       <c r="X33" t="n">
-        <v>397.4074681203022</v>
+        <v>391.9979221418039</v>
       </c>
       <c r="Y33" t="n">
-        <v>189.6471693553482</v>
+        <v>184.23762337685</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>188.4515892423489</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.5896301506247</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="R34" t="n">
-        <v>105.5896301506247</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="S34" t="n">
-        <v>105.5896301506247</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="T34" t="n">
-        <v>105.5896301506247</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="U34" t="n">
-        <v>105.5896301506247</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5896301506247</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="W34" t="n">
         <v>21.43183233528017</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>385.9752406332002</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="C35" t="n">
-        <v>385.9752406332002</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="D35" t="n">
-        <v>385.9752406332002</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="E35" t="n">
-        <v>385.9752406332002</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="F35" t="n">
-        <v>115.3712970059254</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="G35" t="n">
         <v>21.43183233528017</v>
@@ -6964,25 +6964,25 @@
         <v>927.1831278877498</v>
       </c>
       <c r="S35" t="n">
-        <v>927.1831278877498</v>
+        <v>718.5818298187572</v>
       </c>
       <c r="T35" t="n">
-        <v>927.1831278877498</v>
+        <v>493.7185185800776</v>
       </c>
       <c r="U35" t="n">
-        <v>927.1831278877498</v>
+        <v>239.8429030555514</v>
       </c>
       <c r="V35" t="n">
-        <v>927.1831278877498</v>
+        <v>239.8429030555514</v>
       </c>
       <c r="W35" t="n">
-        <v>656.579184260475</v>
+        <v>239.8429030555514</v>
       </c>
       <c r="X35" t="n">
-        <v>385.9752406332002</v>
+        <v>239.8429030555514</v>
       </c>
       <c r="Y35" t="n">
-        <v>385.9752406332002</v>
+        <v>21.43183233528017</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>195.8848616164072</v>
+        <v>491.3538292507735</v>
       </c>
       <c r="C36" t="n">
-        <v>21.43183233528017</v>
+        <v>316.9007999696465</v>
       </c>
       <c r="D36" t="n">
-        <v>21.43183233528017</v>
+        <v>167.9663903083952</v>
       </c>
       <c r="E36" t="n">
-        <v>21.43183233528017</v>
+        <v>167.9663903083952</v>
       </c>
       <c r="F36" t="n">
         <v>21.43183233528017</v>
@@ -7016,52 +7016,52 @@
         <v>21.43183233528017</v>
       </c>
       <c r="J36" t="n">
-        <v>21.43183233528017</v>
+        <v>26.19358430719606</v>
       </c>
       <c r="K36" t="n">
-        <v>21.43183233528017</v>
+        <v>26.19358430719606</v>
       </c>
       <c r="L36" t="n">
-        <v>264.0369202351054</v>
+        <v>26.19358430719606</v>
       </c>
       <c r="M36" t="n">
-        <v>529.2558453841975</v>
+        <v>291.4125094562881</v>
       </c>
       <c r="N36" t="n">
-        <v>538.3968041052904</v>
+        <v>556.6314346053803</v>
       </c>
       <c r="O36" t="n">
-        <v>801.0031542413985</v>
+        <v>819.2377847414884</v>
       </c>
       <c r="P36" t="n">
-        <v>994.7648343330123</v>
+        <v>1012.999464833102</v>
       </c>
       <c r="Q36" t="n">
         <v>1071.591616764008</v>
       </c>
       <c r="R36" t="n">
-        <v>974.1104724993169</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="S36" t="n">
-        <v>974.1104724993169</v>
+        <v>980.7432942107177</v>
       </c>
       <c r="T36" t="n">
-        <v>772.1633258647689</v>
+        <v>980.7432942107177</v>
       </c>
       <c r="U36" t="n">
-        <v>543.9436158928884</v>
+        <v>980.7432942107177</v>
       </c>
       <c r="V36" t="n">
-        <v>308.7915076611457</v>
+        <v>745.5911859789751</v>
       </c>
       <c r="W36" t="n">
-        <v>308.7915076611457</v>
+        <v>491.3538292507735</v>
       </c>
       <c r="X36" t="n">
-        <v>308.7915076611457</v>
+        <v>491.3538292507735</v>
       </c>
       <c r="Y36" t="n">
-        <v>195.8848616164072</v>
+        <v>491.3538292507735</v>
       </c>
     </row>
     <row r="37">
@@ -7110,7 +7110,7 @@
         <v>154.0033528517831</v>
       </c>
       <c r="O37" t="n">
-        <v>185.2421143482187</v>
+        <v>185.2421143482186</v>
       </c>
       <c r="P37" t="n">
         <v>188.4515892423489</v>
@@ -7128,10 +7128,10 @@
         <v>188.4515892423489</v>
       </c>
       <c r="U37" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="V37" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="W37" t="n">
         <v>21.43183233528017</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>562.6397195898298</v>
+      </c>
+      <c r="C38" t="n">
+        <v>562.6397195898298</v>
+      </c>
+      <c r="D38" t="n">
+        <v>562.6397195898298</v>
+      </c>
+      <c r="E38" t="n">
+        <v>562.6397195898298</v>
+      </c>
+      <c r="F38" t="n">
         <v>292.035775962555</v>
-      </c>
-      <c r="C38" t="n">
-        <v>292.035775962555</v>
-      </c>
-      <c r="D38" t="n">
-        <v>21.43183233528017</v>
-      </c>
-      <c r="E38" t="n">
-        <v>21.43183233528017</v>
-      </c>
-      <c r="F38" t="n">
-        <v>21.43183233528017</v>
       </c>
       <c r="G38" t="n">
         <v>21.43183233528017</v>
@@ -7186,10 +7186,10 @@
         <v>571.6210993953117</v>
       </c>
       <c r="N38" t="n">
-        <v>796.8926533230057</v>
+        <v>796.8926533230056</v>
       </c>
       <c r="O38" t="n">
-        <v>964.4225559170835</v>
+        <v>964.4225559170834</v>
       </c>
       <c r="P38" t="n">
         <v>1069.731068932313</v>
@@ -7207,19 +7207,19 @@
         <v>638.1270074563359</v>
       </c>
       <c r="U38" t="n">
-        <v>384.2513919318097</v>
+        <v>638.1270074563359</v>
       </c>
       <c r="V38" t="n">
-        <v>292.035775962555</v>
+        <v>562.6397195898298</v>
       </c>
       <c r="W38" t="n">
-        <v>292.035775962555</v>
+        <v>562.6397195898298</v>
       </c>
       <c r="X38" t="n">
-        <v>292.035775962555</v>
+        <v>562.6397195898298</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.035775962555</v>
+        <v>562.6397195898298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.43183233528017</v>
+        <v>163.7782121699234</v>
       </c>
       <c r="C39" t="n">
-        <v>21.43183233528017</v>
+        <v>163.7782121699234</v>
       </c>
       <c r="D39" t="n">
-        <v>21.43183233528017</v>
+        <v>163.7782121699234</v>
       </c>
       <c r="E39" t="n">
-        <v>21.43183233528017</v>
+        <v>163.7782121699234</v>
       </c>
       <c r="F39" t="n">
-        <v>21.43183233528017</v>
+        <v>163.7782121699234</v>
       </c>
       <c r="G39" t="n">
-        <v>21.43183233528017</v>
+        <v>163.7782121699234</v>
       </c>
       <c r="H39" t="n">
-        <v>21.43183233528017</v>
+        <v>109.6861221391847</v>
       </c>
       <c r="I39" t="n">
         <v>21.43183233528017</v>
@@ -7256,13 +7256,13 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K39" t="n">
-        <v>21.43183233528017</v>
+        <v>156.1912680107897</v>
       </c>
       <c r="L39" t="n">
-        <v>264.0369202351054</v>
+        <v>273.1778789561983</v>
       </c>
       <c r="M39" t="n">
-        <v>273.1778789561983</v>
+        <v>538.3968041052904</v>
       </c>
       <c r="N39" t="n">
         <v>538.3968041052904</v>
@@ -7283,22 +7283,22 @@
         <v>801.7965689818847</v>
       </c>
       <c r="T39" t="n">
-        <v>672.1957395375096</v>
+        <v>599.8494223473367</v>
       </c>
       <c r="U39" t="n">
-        <v>672.1957395375096</v>
+        <v>371.6297123754562</v>
       </c>
       <c r="V39" t="n">
-        <v>437.0436313057669</v>
+        <v>371.6297123754562</v>
       </c>
       <c r="W39" t="n">
-        <v>437.0436313057669</v>
+        <v>371.6297123754562</v>
       </c>
       <c r="X39" t="n">
-        <v>229.1921311002341</v>
+        <v>163.7782121699234</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.43183233528017</v>
+        <v>163.7782121699234</v>
       </c>
     </row>
     <row r="40">
@@ -7347,16 +7347,16 @@
         <v>154.0033528517831</v>
       </c>
       <c r="O40" t="n">
-        <v>185.2421143482187</v>
+        <v>185.2421143482186</v>
       </c>
       <c r="P40" t="n">
         <v>188.4515892423489</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.5896301506247</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="R40" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="S40" t="n">
         <v>21.43183233528017</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="C41" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="D41" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="E41" t="n">
         <v>21.43183233528017</v>
@@ -7414,19 +7414,19 @@
         <v>21.43183233528017</v>
       </c>
       <c r="K41" t="n">
-        <v>138.2891553616988</v>
+        <v>138.2891553616987</v>
       </c>
       <c r="L41" t="n">
-        <v>335.5376253495386</v>
+        <v>335.5376253495385</v>
       </c>
       <c r="M41" t="n">
-        <v>571.6210993953118</v>
+        <v>571.6210993953117</v>
       </c>
       <c r="N41" t="n">
-        <v>796.8926533230058</v>
+        <v>796.8926533230057</v>
       </c>
       <c r="O41" t="n">
-        <v>964.4225559170836</v>
+        <v>964.4225559170835</v>
       </c>
       <c r="P41" t="n">
         <v>1069.731068932313</v>
@@ -7435,28 +7435,28 @@
         <v>1071.591616764008</v>
       </c>
       <c r="R41" t="n">
-        <v>927.1831278877498</v>
+        <v>979.3760007947534</v>
       </c>
       <c r="S41" t="n">
-        <v>927.1831278877498</v>
+        <v>770.7747027257608</v>
       </c>
       <c r="T41" t="n">
-        <v>927.1831278877498</v>
+        <v>545.9113914870811</v>
       </c>
       <c r="U41" t="n">
-        <v>673.3075123632236</v>
+        <v>292.035775962555</v>
       </c>
       <c r="V41" t="n">
-        <v>673.3075123632236</v>
+        <v>292.035775962555</v>
       </c>
       <c r="W41" t="n">
-        <v>402.7035687359488</v>
+        <v>292.035775962555</v>
       </c>
       <c r="X41" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="Y41" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>265.4491243725579</v>
+        <v>293.4646857071253</v>
       </c>
       <c r="C42" t="n">
-        <v>90.99609509143087</v>
+        <v>293.4646857071253</v>
       </c>
       <c r="D42" t="n">
-        <v>90.99609509143087</v>
+        <v>293.4646857071253</v>
       </c>
       <c r="E42" t="n">
-        <v>21.43183233528017</v>
+        <v>134.2272307016698</v>
       </c>
       <c r="F42" t="n">
-        <v>21.43183233528017</v>
+        <v>134.2272307016698</v>
       </c>
       <c r="G42" t="n">
-        <v>21.43183233528017</v>
+        <v>134.2272307016698</v>
       </c>
       <c r="H42" t="n">
         <v>21.43183233528017</v>
@@ -7490,52 +7490,52 @@
         <v>21.43183233528017</v>
       </c>
       <c r="J42" t="n">
-        <v>26.19358430719606</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="K42" t="n">
-        <v>160.9530199827056</v>
+        <v>156.1912680107897</v>
       </c>
       <c r="L42" t="n">
-        <v>270.5653039432145</v>
+        <v>156.1912680107897</v>
       </c>
       <c r="M42" t="n">
-        <v>535.7842290923065</v>
+        <v>350.0046613871942</v>
       </c>
       <c r="N42" t="n">
-        <v>801.0031542413985</v>
+        <v>615.2235865362862</v>
       </c>
       <c r="O42" t="n">
-        <v>801.0031542413985</v>
+        <v>877.8299366723944</v>
       </c>
       <c r="P42" t="n">
-        <v>994.7648343330123</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="Q42" t="n">
         <v>1071.591616764008</v>
       </c>
       <c r="R42" t="n">
-        <v>1071.591616764008</v>
+        <v>974.1104724993169</v>
       </c>
       <c r="S42" t="n">
-        <v>1071.591616764008</v>
+        <v>957.4094878348288</v>
       </c>
       <c r="T42" t="n">
-        <v>869.6444701294603</v>
+        <v>755.4623412002809</v>
       </c>
       <c r="U42" t="n">
-        <v>641.4247601575798</v>
+        <v>755.4623412002809</v>
       </c>
       <c r="V42" t="n">
-        <v>641.4247601575798</v>
+        <v>755.4623412002809</v>
       </c>
       <c r="W42" t="n">
-        <v>641.4247601575798</v>
+        <v>501.2249844720793</v>
       </c>
       <c r="X42" t="n">
-        <v>641.4247601575798</v>
+        <v>501.2249844720793</v>
       </c>
       <c r="Y42" t="n">
-        <v>433.6644613926259</v>
+        <v>293.4646857071253</v>
       </c>
     </row>
     <row r="43">
@@ -7596,7 +7596,7 @@
         <v>188.4515892423489</v>
       </c>
       <c r="S43" t="n">
-        <v>21.43183233528017</v>
+        <v>188.4515892423489</v>
       </c>
       <c r="T43" t="n">
         <v>21.43183233528017</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="C44" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="D44" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="E44" t="n">
-        <v>292.035775962555</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="F44" t="n">
         <v>21.43183233528017</v>
@@ -7681,19 +7681,19 @@
         <v>1071.591616764008</v>
       </c>
       <c r="U44" t="n">
-        <v>833.2436632171047</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="V44" t="n">
-        <v>833.2436632171047</v>
+        <v>1071.591616764008</v>
       </c>
       <c r="W44" t="n">
-        <v>562.6397195898298</v>
+        <v>800.9876731367334</v>
       </c>
       <c r="X44" t="n">
-        <v>562.6397195898298</v>
+        <v>530.3837295094586</v>
       </c>
       <c r="Y44" t="n">
-        <v>562.6397195898298</v>
+        <v>259.7797858821838</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>131.9474132831962</v>
+        <v>375.7282788728203</v>
       </c>
       <c r="C45" t="n">
-        <v>131.9474132831962</v>
+        <v>375.7282788728203</v>
       </c>
       <c r="D45" t="n">
-        <v>131.9474132831962</v>
+        <v>226.7938692115691</v>
       </c>
       <c r="E45" t="n">
-        <v>131.9474132831962</v>
+        <v>226.7938692115691</v>
       </c>
       <c r="F45" t="n">
-        <v>131.9474132831962</v>
+        <v>226.7938692115691</v>
       </c>
       <c r="G45" t="n">
-        <v>21.43183233528017</v>
+        <v>134.2272307016698</v>
       </c>
       <c r="H45" t="n">
         <v>21.43183233528017</v>
@@ -7754,25 +7754,25 @@
         <v>974.1104724993169</v>
       </c>
       <c r="S45" t="n">
-        <v>801.7965689818847</v>
+        <v>974.1104724993169</v>
       </c>
       <c r="T45" t="n">
-        <v>801.7965689818847</v>
+        <v>772.1633258647689</v>
       </c>
       <c r="U45" t="n">
-        <v>801.7965689818847</v>
+        <v>543.9436158928884</v>
       </c>
       <c r="V45" t="n">
-        <v>801.7965689818847</v>
+        <v>543.9436158928884</v>
       </c>
       <c r="W45" t="n">
-        <v>547.559212253683</v>
+        <v>543.9436158928884</v>
       </c>
       <c r="X45" t="n">
-        <v>339.7077120481501</v>
+        <v>543.9436158928884</v>
       </c>
       <c r="Y45" t="n">
-        <v>131.9474132831962</v>
+        <v>543.9436158928884</v>
       </c>
     </row>
     <row r="46">
@@ -7833,19 +7833,19 @@
         <v>188.4515892423489</v>
       </c>
       <c r="S46" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="T46" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="U46" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="V46" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="W46" t="n">
-        <v>188.4515892423489</v>
+        <v>21.43183233528017</v>
       </c>
       <c r="X46" t="n">
         <v>21.43183233528017</v>
@@ -8771,22 +8771,22 @@
         <v>121.2811848637261</v>
       </c>
       <c r="K12" t="n">
-        <v>192.3384372421871</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>125.7847009602013</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>395.1303252373007</v>
       </c>
       <c r="N12" t="n">
-        <v>383.9436020469284</v>
+        <v>116.0456978559263</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>269.1782287172899</v>
       </c>
       <c r="Q12" t="n">
         <v>132.4744771994897</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9020,13 +9020,13 @@
         <v>383.9436020469284</v>
       </c>
       <c r="O15" t="n">
-        <v>128.6033797453071</v>
+        <v>189.9860829294458</v>
       </c>
       <c r="P15" t="n">
-        <v>261.7294135810275</v>
+        <v>122.7438998605293</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.4744771994897</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>121.2811848637261</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3445949161043</v>
+        <v>143.0016616783372</v>
       </c>
       <c r="L18" t="n">
-        <v>125.7847009602013</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>395.1303252373007</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>122.7438998605293</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.6584690488896</v>
+        <v>132.4744771994897</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>121.2811848637261</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>128.3445949161043</v>
       </c>
       <c r="L21" t="n">
         <v>125.7847009602013</v>
       </c>
       <c r="M21" t="n">
-        <v>395.1303252373007</v>
+        <v>381.521357027024</v>
       </c>
       <c r="N21" t="n">
         <v>383.9436020469284</v>
       </c>
       <c r="O21" t="n">
-        <v>239.3228584932958</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,13 +9719,13 @@
         <v>121.2811848637261</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3445949161043</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>125.7847009602013</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>395.1303252373007</v>
+        <v>127.2324210462987</v>
       </c>
       <c r="N24" t="n">
         <v>383.9436020469284</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>304.8538004296605</v>
+        <v>269.1782287172899</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>132.4744771994897</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,16 +9965,16 @@
         <v>395.1303252373007</v>
       </c>
       <c r="N27" t="n">
-        <v>383.9436020469284</v>
+        <v>125.2789894933938</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>122.7438998605293</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>147.1315439617225</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>321.5558053808119</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>127.2324210462987</v>
+        <v>345.8457853146535</v>
       </c>
       <c r="N30" t="n">
-        <v>383.9436020469284</v>
+        <v>116.0456978559263</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>121.2811848637261</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>128.3445949161043</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>127.2324210462987</v>
+        <v>395.1303252373007</v>
       </c>
       <c r="N33" t="n">
         <v>383.9436020469284</v>
       </c>
       <c r="O33" t="n">
-        <v>262.1651183410399</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>137.4009666227621</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>132.4744771994897</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>121.2811848637261</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>128.3445949161043</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>125.7847009602013</v>
       </c>
       <c r="M36" t="n">
         <v>395.1303252373007</v>
       </c>
       <c r="N36" t="n">
-        <v>125.2789894933938</v>
+        <v>383.9436020469284</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>191.6584690488896</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,16 +10904,16 @@
         <v>121.2811848637261</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3445949161043</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>243.9529948444524</v>
       </c>
       <c r="M39" t="n">
-        <v>136.4657126837662</v>
+        <v>395.1303252373007</v>
       </c>
       <c r="N39" t="n">
-        <v>383.9436020469284</v>
+        <v>116.0456978559263</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>121.2811848637261</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>236.5041797081901</v>
+        <v>125.7847009602013</v>
       </c>
       <c r="M42" t="n">
-        <v>395.1303252373007</v>
+        <v>323.0035254669093</v>
       </c>
       <c r="N42" t="n">
         <v>383.9436020469284</v>
       </c>
       <c r="O42" t="n">
-        <v>128.6033797453071</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>132.4744771994897</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>86.7851374296809</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>162.6672994500345</v>
+        <v>147.2949140921882</v>
       </c>
       <c r="H11" t="n">
-        <v>338.3490917816122</v>
+        <v>183.9664026549741</v>
       </c>
       <c r="I11" t="n">
         <v>206.2382283808531</v>
       </c>
       <c r="J11" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335631</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>142.9644039874957</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>206.5152850883027</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>222.6146781262929</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3368593692809</v>
       </c>
       <c r="V11" t="n">
-        <v>59.85435427913285</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>81.34306452641096</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.2847051892507</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>87.37174690586549</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.5907644822579</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>182.9327876924175</v>
       </c>
       <c r="U12" t="n">
         <v>225.9375128721617</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>183.2902984009969</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>19.13314707064723</v>
+        <v>167.941673375113</v>
       </c>
       <c r="H13" t="n">
         <v>161.7887974918747</v>
@@ -23442,7 +23442,7 @@
         <v>89.87324709412889</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>16.54103303353221</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>82.03333950080692</v>
       </c>
       <c r="R13" t="n">
-        <v>175.0764150714601</v>
+        <v>9.72685573346206</v>
       </c>
       <c r="S13" t="n">
         <v>223.1573292181197</v>
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>86.7851374296809</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>230.1677128879593</v>
       </c>
       <c r="F14" t="n">
-        <v>138.9781415507094</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.1928182831902</v>
       </c>
       <c r="H14" t="n">
-        <v>338.3490917816122</v>
+        <v>70.45118759061017</v>
       </c>
       <c r="I14" t="n">
         <v>206.2382283808531</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.85202094199036</v>
+        <v>222.6146781262929</v>
       </c>
       <c r="U14" t="n">
         <v>251.3368593692809</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>118.3400344650515</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.96704621785565</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2847051892507</v>
+        <v>92.62711939229692</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6674443827257</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>87.37174690586549</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>96.50633282204441</v>
       </c>
       <c r="S15" t="n">
         <v>170.5907644822579</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9276751682025</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9375128721617</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.48242084393928</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>82.03333950080692</v>
       </c>
       <c r="R16" t="n">
-        <v>175.0764150714601</v>
+        <v>9.72685573346206</v>
       </c>
       <c r="S16" t="n">
         <v>223.1573292181197</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>114.8359374724785</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>97.3749875800055</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>114.0324658812597</v>
+        <v>288.930300048323</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,10 +23752,10 @@
         <v>338.3490917816122</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>206.2382283808531</v>
       </c>
       <c r="J17" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335631</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>142.9644039874957</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>206.5152850883027</v>
       </c>
       <c r="T17" t="n">
         <v>222.6146781262929</v>
@@ -23791,13 +23791,13 @@
         <v>251.3368593692809</v>
       </c>
       <c r="V17" t="n">
-        <v>59.85435427913285</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>81.34306452641096</v>
       </c>
       <c r="X17" t="n">
-        <v>278.6222359451882</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>59.30722176304768</v>
+        <v>123.0911249647936</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2847051892507</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>111.6674443827257</v>
       </c>
       <c r="I18" t="n">
-        <v>87.37174690586549</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.9276751682025</v>
       </c>
       <c r="U18" t="n">
         <v>225.9375128721617</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,7 +23937,7 @@
         <v>82.03333950080692</v>
       </c>
       <c r="R19" t="n">
-        <v>9.72685573346206</v>
+        <v>175.0764150714601</v>
       </c>
       <c r="S19" t="n">
         <v>223.1573292181197</v>
@@ -23949,7 +23949,7 @@
         <v>286.3163399392175</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>86.78808398582999</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>210.8902026443694</v>
+        <v>97.3749875800055</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>86.7851374296809</v>
       </c>
       <c r="E20" t="n">
-        <v>114.0324658812597</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,13 +23986,13 @@
         <v>415.1928182831902</v>
       </c>
       <c r="H20" t="n">
-        <v>338.3490917816122</v>
+        <v>70.45118759061017</v>
       </c>
       <c r="I20" t="n">
-        <v>206.2382283808531</v>
+        <v>176.7890394577213</v>
       </c>
       <c r="J20" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335631</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>142.9644039874957</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>251.3368593692809</v>
       </c>
       <c r="V20" t="n">
-        <v>59.85435427913285</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>79.04977443863567</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.2847051892507</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.5907644822579</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.9276751682025</v>
       </c>
       <c r="U21" t="n">
         <v>225.9375128721617</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>117.6351414018864</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>82.03333950080692</v>
       </c>
       <c r="R22" t="n">
-        <v>91.76019523426896</v>
+        <v>175.0764150714601</v>
       </c>
       <c r="S22" t="n">
-        <v>223.1573292181197</v>
+        <v>57.80776988012164</v>
       </c>
       <c r="T22" t="n">
         <v>227.7349184085315</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>114.8359374724785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>114.0324658812597</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.1928182831902</v>
+        <v>147.2949140921882</v>
       </c>
       <c r="H23" t="n">
-        <v>338.3490917816122</v>
+        <v>70.45118759061017</v>
       </c>
       <c r="I23" t="n">
-        <v>206.2382283808531</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335631</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>142.9644039874957</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>206.5152850883027</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>67.95493229220517</v>
       </c>
       <c r="U23" t="n">
-        <v>176.6044443814399</v>
+        <v>251.3368593692809</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,10 +24299,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.2847051892507</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>111.6674443827257</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>87.37174690586549</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>32.47334189083418</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24344,13 +24344,13 @@
         <v>225.9375128721617</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>133.7867038244376</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.941673375113</v>
+        <v>164.3809115289897</v>
       </c>
       <c r="H25" t="n">
-        <v>161.7887974918747</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>153.9677095371882</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>121.173438998593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>112.7473729378518</v>
+        <v>97.3749875800055</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>86.7851374296809</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>138.9781415507094</v>
+        <v>170.9115717302769</v>
       </c>
       <c r="G26" t="n">
         <v>415.1928182831902</v>
@@ -24466,7 +24466,7 @@
         <v>206.2382283808531</v>
       </c>
       <c r="J26" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335631</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>222.6146781262929</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3368593692809</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>101.833196487467</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>118.3400344650515</v>
       </c>
     </row>
     <row r="27">
@@ -24533,13 +24533,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.2847051892507</v>
       </c>
       <c r="H27" t="n">
-        <v>111.6674443827257</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>87.37174690586549</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>72.09248015247402</v>
       </c>
       <c r="U27" t="n">
         <v>225.9375128721617</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>21.128808579842</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24651,7 +24651,7 @@
         <v>175.0764150714601</v>
       </c>
       <c r="S28" t="n">
-        <v>223.1573292181197</v>
+        <v>57.80776988012164</v>
       </c>
       <c r="T28" t="n">
         <v>227.7349184085315</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>121.173438998593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>114.8359374724785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>114.0324658812597</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>138.9781415507094</v>
       </c>
       <c r="G29" t="n">
-        <v>415.1928182831902</v>
+        <v>179.2283442717557</v>
       </c>
       <c r="H29" t="n">
         <v>338.3490917816122</v>
@@ -24703,7 +24703,7 @@
         <v>206.2382283808531</v>
       </c>
       <c r="J29" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335631</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>222.6146781262929</v>
       </c>
       <c r="U29" t="n">
-        <v>15.37238535784641</v>
+        <v>251.3368593692809</v>
       </c>
       <c r="V29" t="n">
-        <v>59.85435427913285</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>101.833196487467</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>118.3400344650515</v>
       </c>
     </row>
     <row r="30">
@@ -24764,16 +24764,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>141.7334641774799</v>
       </c>
       <c r="G30" t="n">
-        <v>137.2847051892507</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>111.6674443827257</v>
@@ -24815,19 +24815,19 @@
         <v>199.9276751682025</v>
       </c>
       <c r="U30" t="n">
-        <v>49.50478697415383</v>
+        <v>225.9375128721617</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>114.8359374724785</v>
       </c>
       <c r="C32" t="n">
-        <v>226.9895956823596</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>86.7851374296809</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.1928182831902</v>
+        <v>404.4630543403841</v>
       </c>
       <c r="H32" t="n">
         <v>338.3490917816122</v>
@@ -24940,7 +24940,7 @@
         <v>206.2382283808531</v>
       </c>
       <c r="J32" t="n">
-        <v>2.620031942335633</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>142.9644039874957</v>
       </c>
       <c r="S32" t="n">
         <v>206.5152850883027</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>101.833196487467</v>
       </c>
       <c r="Y32" t="n">
         <v>118.3400344650515</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>5.355450518713269</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>32.38305246466101</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>225.9375128721617</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.03333950080692</v>
       </c>
       <c r="R34" t="n">
         <v>175.0764150714601</v>
@@ -25128,7 +25128,7 @@
         <v>223.1573292181197</v>
       </c>
       <c r="T34" t="n">
-        <v>227.7349184085315</v>
+        <v>62.3853590705335</v>
       </c>
       <c r="U34" t="n">
         <v>286.3163399392175</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.2067784993999</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>138.9781415507094</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>322.1927482592515</v>
+        <v>415.1928182831902</v>
       </c>
       <c r="H35" t="n">
         <v>338.3490917816122</v>
@@ -25177,7 +25177,7 @@
         <v>206.2382283808531</v>
       </c>
       <c r="J35" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335634</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>206.5152850883027</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6146781262929</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3368593692809</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>81.34306452641096</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>101.833196487467</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>170.0109786429851</v>
       </c>
     </row>
     <row r="36">
@@ -25238,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.2847051892507</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>96.50633282204443</v>
       </c>
       <c r="S36" t="n">
-        <v>170.5907644822579</v>
+        <v>80.65092515450033</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.9276751682025</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9375128721617</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>93.90511619301328</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25368,13 +25368,13 @@
         <v>227.7349184085315</v>
       </c>
       <c r="U37" t="n">
-        <v>120.9667806012195</v>
+        <v>286.3163399392175</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>121.173438998593</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>86.7851374296809</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>138.9781415507094</v>
       </c>
       <c r="G38" t="n">
-        <v>415.1928182831902</v>
+        <v>147.2949140921882</v>
       </c>
       <c r="H38" t="n">
         <v>338.3490917816122</v>
@@ -25414,7 +25414,7 @@
         <v>206.2382283808531</v>
       </c>
       <c r="J38" t="n">
-        <v>2.620031942335633</v>
+        <v>2.620031942335634</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3368593692809</v>
       </c>
       <c r="V38" t="n">
-        <v>236.4587986605727</v>
+        <v>253.0198434822939</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25487,10 +25487,10 @@
         <v>137.2847051892507</v>
       </c>
       <c r="H39" t="n">
-        <v>111.6674443827257</v>
+        <v>58.11627525229444</v>
       </c>
       <c r="I39" t="n">
-        <v>87.37174690586549</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,13 +25523,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>71.62285401827114</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9375128721617</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>82.03333950080692</v>
       </c>
       <c r="R40" t="n">
-        <v>91.76019523426896</v>
+        <v>175.0764150714601</v>
       </c>
       <c r="S40" t="n">
-        <v>223.1573292181197</v>
+        <v>57.80776988012167</v>
       </c>
       <c r="T40" t="n">
         <v>227.7349184085315</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>114.0324658812597</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.67094417793345</v>
       </c>
       <c r="S41" t="n">
-        <v>206.5152850883027</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.6146781262929</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>81.34306452641096</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>260.1699858328091</v>
+        <v>101.833196487467</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>88.77646032681174</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25724,7 +25724,7 @@
         <v>137.2847051892507</v>
       </c>
       <c r="H42" t="n">
-        <v>111.6674443827257</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>87.37174690586549</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>96.50633282204443</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>170.5907644822579</v>
+        <v>154.0567896644147</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9375128721617</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25836,10 +25836,10 @@
         <v>175.0764150714601</v>
       </c>
       <c r="S43" t="n">
-        <v>57.80776988012167</v>
+        <v>223.1573292181197</v>
       </c>
       <c r="T43" t="n">
-        <v>227.7349184085315</v>
+        <v>62.38535907053353</v>
       </c>
       <c r="U43" t="n">
         <v>286.3163399392175</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>114.8359374724785</v>
+        <v>146.769367652046</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>138.9781415507094</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.1928182831902</v>
@@ -25921,7 +25921,7 @@
         <v>222.6146781262929</v>
       </c>
       <c r="U44" t="n">
-        <v>15.37238535784641</v>
+        <v>251.3368593692809</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>81.34306452641096</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>101.833196487467</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>118.3400344650515</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,10 +25958,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>27.87428005081384</v>
+        <v>45.64373306445046</v>
       </c>
       <c r="H45" t="n">
-        <v>111.6674443827257</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>87.37174690586549</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>170.5907644822579</v>
       </c>
       <c r="T45" t="n">
-        <v>199.9276751682025</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9375128721617</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>175.0764150714601</v>
       </c>
       <c r="S46" t="n">
-        <v>223.1573292181197</v>
+        <v>57.80776988012167</v>
       </c>
       <c r="T46" t="n">
         <v>227.7349184085315</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>60.36009605103916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>441685.3699166824</v>
+        <v>441685.3699166825</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441685.3699166824</v>
+        <v>441685.3699166825</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>441685.3699166825</v>
+        <v>441685.3699166824</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>441685.3699166825</v>
+        <v>441685.3699166824</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>441685.3699166826</v>
+        <v>441685.3699166825</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441685.3699166825</v>
+        <v>441685.3699166826</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377787</v>
+      </c>
+      <c r="C2" t="n">
+        <v>614457.2540377787</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377789</v>
-      </c>
-      <c r="C2" t="n">
-        <v>614457.2540377788</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
         <v>262087.7050708723</v>
@@ -26328,31 +26328,31 @@
         <v>262087.7050708723</v>
       </c>
       <c r="G2" t="n">
+        <v>262087.7050708724</v>
+      </c>
+      <c r="H2" t="n">
         <v>262087.7050708723</v>
-      </c>
-      <c r="H2" t="n">
-        <v>262087.7050708722</v>
       </c>
       <c r="I2" t="n">
         <v>262087.7050708723</v>
       </c>
       <c r="J2" t="n">
-        <v>262087.7050708724</v>
+        <v>262087.7050708723</v>
       </c>
       <c r="K2" t="n">
         <v>262087.7050708723</v>
       </c>
       <c r="L2" t="n">
-        <v>262087.7050708723</v>
+        <v>262087.7050708722</v>
       </c>
       <c r="M2" t="n">
         <v>262087.7050708723</v>
       </c>
       <c r="N2" t="n">
-        <v>262087.7050708723</v>
+        <v>262087.7050708724</v>
       </c>
       <c r="O2" t="n">
-        <v>262087.7050708723</v>
+        <v>262087.7050708722</v>
       </c>
       <c r="P2" t="n">
         <v>262087.7050708723</v>
@@ -26429,7 +26429,7 @@
         <v>92435.29037955889</v>
       </c>
       <c r="F4" t="n">
-        <v>92435.29037955889</v>
+        <v>92435.29037955888</v>
       </c>
       <c r="G4" t="n">
         <v>92435.29037955889</v>
@@ -26441,13 +26441,13 @@
         <v>92435.29037955889</v>
       </c>
       <c r="J4" t="n">
-        <v>92435.29037955888</v>
+        <v>92435.29037955889</v>
       </c>
       <c r="K4" t="n">
         <v>92435.29037955889</v>
       </c>
       <c r="L4" t="n">
-        <v>92435.29037955889</v>
+        <v>92435.29037955888</v>
       </c>
       <c r="M4" t="n">
         <v>92435.29037955889</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176807.9959779646</v>
+        <v>176763.8601992833</v>
       </c>
       <c r="C6" t="n">
-        <v>176807.9959779646</v>
+        <v>176763.8601992833</v>
       </c>
       <c r="D6" t="n">
-        <v>176807.9959779645</v>
+        <v>176763.8601992835</v>
       </c>
       <c r="E6" t="n">
-        <v>50812.76378926678</v>
+        <v>39022.97637835546</v>
       </c>
       <c r="F6" t="n">
-        <v>152768.1576014717</v>
+        <v>140978.3701905604</v>
       </c>
       <c r="G6" t="n">
-        <v>152768.1576014717</v>
+        <v>140978.3701905604</v>
       </c>
       <c r="H6" t="n">
-        <v>152768.1576014716</v>
+        <v>140978.3701905604</v>
       </c>
       <c r="I6" t="n">
-        <v>152768.1576014717</v>
+        <v>140978.3701905604</v>
       </c>
       <c r="J6" t="n">
-        <v>152768.1576014718</v>
+        <v>140978.3701905604</v>
       </c>
       <c r="K6" t="n">
-        <v>152768.1576014717</v>
+        <v>140978.3701905604</v>
       </c>
       <c r="L6" t="n">
-        <v>152768.1576014717</v>
+        <v>140978.3701905603</v>
       </c>
       <c r="M6" t="n">
-        <v>86006.92828545722</v>
+        <v>74217.14087454588</v>
       </c>
       <c r="N6" t="n">
-        <v>152768.1576014717</v>
+        <v>140978.3701905604</v>
       </c>
       <c r="O6" t="n">
-        <v>152768.1576014717</v>
+        <v>140978.3701905603</v>
       </c>
       <c r="P6" t="n">
-        <v>152768.1576014717</v>
+        <v>140978.3701905604</v>
       </c>
     </row>
   </sheetData>
@@ -31755,13 +31755,13 @@
         <v>0.1099192319448225</v>
       </c>
       <c r="H11" t="n">
-        <v>1.125710334154913</v>
+        <v>1.125710334154914</v>
       </c>
       <c r="I11" t="n">
         <v>4.237661189552773</v>
       </c>
       <c r="J11" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276887</v>
       </c>
       <c r="K11" t="n">
         <v>13.98213850050122</v>
@@ -31770,7 +31770,7 @@
         <v>17.34607919513259</v>
       </c>
       <c r="M11" t="n">
-        <v>19.30085533623132</v>
+        <v>19.30085533623133</v>
       </c>
       <c r="N11" t="n">
         <v>19.61316335399455</v>
@@ -31779,19 +31779,19 @@
         <v>18.52015399134322</v>
       </c>
       <c r="P11" t="n">
-        <v>15.80652295270541</v>
+        <v>15.80652295270542</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.87004045868145</v>
+        <v>11.87004045868146</v>
       </c>
       <c r="R11" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653961</v>
       </c>
       <c r="S11" t="n">
-        <v>2.504784497942644</v>
+        <v>2.504784497942645</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4811714378384606</v>
+        <v>0.4811714378384607</v>
       </c>
       <c r="U11" t="n">
         <v>0.008793538555585796</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05881197395991142</v>
+        <v>0.05881197395991143</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707237</v>
       </c>
       <c r="I12" t="n">
         <v>2.024885945549582</v>
@@ -31843,16 +31843,16 @@
         <v>5.55644180294058</v>
       </c>
       <c r="K12" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254647</v>
       </c>
       <c r="L12" t="n">
-        <v>12.76967881967287</v>
+        <v>12.76967881967288</v>
       </c>
       <c r="M12" t="n">
         <v>14.90161287571966</v>
       </c>
       <c r="N12" t="n">
-        <v>15.29601422740696</v>
+        <v>15.29601422740697</v>
       </c>
       <c r="O12" t="n">
         <v>13.99286469913735</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04930598334574109</v>
+        <v>0.0493059833457411</v>
       </c>
       <c r="H13" t="n">
-        <v>0.438375015564862</v>
+        <v>0.4383750155648621</v>
       </c>
       <c r="I13" t="n">
-        <v>1.482765390070105</v>
+        <v>1.482765390070106</v>
       </c>
       <c r="J13" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543896</v>
       </c>
       <c r="K13" t="n">
         <v>5.728458792350646</v>
       </c>
       <c r="L13" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014875001</v>
       </c>
       <c r="M13" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551034</v>
       </c>
       <c r="N13" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535096</v>
       </c>
       <c r="O13" t="n">
-        <v>6.969176627814389</v>
+        <v>6.96917662781439</v>
       </c>
       <c r="P13" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561267</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.128703750887466</v>
+        <v>4.128703750887467</v>
       </c>
       <c r="R13" t="n">
         <v>2.216976305709413</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525969</v>
       </c>
       <c r="T13" t="n">
         <v>0.2106710197499846</v>
@@ -31992,13 +31992,13 @@
         <v>0.1099192319448225</v>
       </c>
       <c r="H14" t="n">
-        <v>1.125710334154913</v>
+        <v>1.125710334154914</v>
       </c>
       <c r="I14" t="n">
         <v>4.237661189552773</v>
       </c>
       <c r="J14" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276887</v>
       </c>
       <c r="K14" t="n">
         <v>13.98213850050122</v>
@@ -32007,7 +32007,7 @@
         <v>17.34607919513259</v>
       </c>
       <c r="M14" t="n">
-        <v>19.30085533623132</v>
+        <v>19.30085533623133</v>
       </c>
       <c r="N14" t="n">
         <v>19.61316335399455</v>
@@ -32016,19 +32016,19 @@
         <v>18.52015399134322</v>
       </c>
       <c r="P14" t="n">
-        <v>15.80652295270541</v>
+        <v>15.80652295270542</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.87004045868145</v>
+        <v>11.87004045868146</v>
       </c>
       <c r="R14" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653961</v>
       </c>
       <c r="S14" t="n">
-        <v>2.504784497942644</v>
+        <v>2.504784497942645</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4811714378384606</v>
+        <v>0.4811714378384607</v>
       </c>
       <c r="U14" t="n">
         <v>0.008793538555585796</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05881197395991142</v>
+        <v>0.05881197395991143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707237</v>
       </c>
       <c r="I15" t="n">
         <v>2.024885945549582</v>
@@ -32080,16 +32080,16 @@
         <v>5.55644180294058</v>
       </c>
       <c r="K15" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254647</v>
       </c>
       <c r="L15" t="n">
-        <v>12.76967881967287</v>
+        <v>12.76967881967288</v>
       </c>
       <c r="M15" t="n">
         <v>14.90161287571966</v>
       </c>
       <c r="N15" t="n">
-        <v>15.29601422740696</v>
+        <v>15.29601422740697</v>
       </c>
       <c r="O15" t="n">
         <v>13.99286469913735</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04930598334574109</v>
+        <v>0.0493059833457411</v>
       </c>
       <c r="H16" t="n">
-        <v>0.438375015564862</v>
+        <v>0.4383750155648621</v>
       </c>
       <c r="I16" t="n">
-        <v>1.482765390070105</v>
+        <v>1.482765390070106</v>
       </c>
       <c r="J16" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543896</v>
       </c>
       <c r="K16" t="n">
         <v>5.728458792350646</v>
       </c>
       <c r="L16" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014875001</v>
       </c>
       <c r="M16" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551034</v>
       </c>
       <c r="N16" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535096</v>
       </c>
       <c r="O16" t="n">
-        <v>6.969176627814389</v>
+        <v>6.96917662781439</v>
       </c>
       <c r="P16" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561267</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.128703750887466</v>
+        <v>4.128703750887467</v>
       </c>
       <c r="R16" t="n">
         <v>2.216976305709413</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525969</v>
       </c>
       <c r="T16" t="n">
         <v>0.2106710197499846</v>
@@ -32229,13 +32229,13 @@
         <v>0.1099192319448225</v>
       </c>
       <c r="H17" t="n">
-        <v>1.125710334154913</v>
+        <v>1.125710334154914</v>
       </c>
       <c r="I17" t="n">
         <v>4.237661189552773</v>
       </c>
       <c r="J17" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276887</v>
       </c>
       <c r="K17" t="n">
         <v>13.98213850050122</v>
@@ -32244,7 +32244,7 @@
         <v>17.34607919513259</v>
       </c>
       <c r="M17" t="n">
-        <v>19.30085533623132</v>
+        <v>19.30085533623133</v>
       </c>
       <c r="N17" t="n">
         <v>19.61316335399455</v>
@@ -32253,19 +32253,19 @@
         <v>18.52015399134322</v>
       </c>
       <c r="P17" t="n">
-        <v>15.80652295270541</v>
+        <v>15.80652295270542</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.87004045868145</v>
+        <v>11.87004045868146</v>
       </c>
       <c r="R17" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653961</v>
       </c>
       <c r="S17" t="n">
-        <v>2.504784497942644</v>
+        <v>2.504784497942645</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4811714378384606</v>
+        <v>0.4811714378384607</v>
       </c>
       <c r="U17" t="n">
         <v>0.008793538555585796</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05881197395991142</v>
+        <v>0.05881197395991143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707237</v>
       </c>
       <c r="I18" t="n">
         <v>2.024885945549582</v>
@@ -32317,16 +32317,16 @@
         <v>5.55644180294058</v>
       </c>
       <c r="K18" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254647</v>
       </c>
       <c r="L18" t="n">
-        <v>12.76967881967287</v>
+        <v>12.76967881967288</v>
       </c>
       <c r="M18" t="n">
         <v>14.90161287571966</v>
       </c>
       <c r="N18" t="n">
-        <v>15.29601422740696</v>
+        <v>15.29601422740697</v>
       </c>
       <c r="O18" t="n">
         <v>13.99286469913735</v>
@@ -32384,43 +32384,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04930598334574109</v>
+        <v>0.0493059833457411</v>
       </c>
       <c r="H19" t="n">
-        <v>0.438375015564862</v>
+        <v>0.4383750155648621</v>
       </c>
       <c r="I19" t="n">
-        <v>1.482765390070105</v>
+        <v>1.482765390070106</v>
       </c>
       <c r="J19" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543896</v>
       </c>
       <c r="K19" t="n">
         <v>5.728458792350646</v>
       </c>
       <c r="L19" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014875001</v>
       </c>
       <c r="M19" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551034</v>
       </c>
       <c r="N19" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535096</v>
       </c>
       <c r="O19" t="n">
-        <v>6.969176627814389</v>
+        <v>6.96917662781439</v>
       </c>
       <c r="P19" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561267</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.128703750887466</v>
+        <v>4.128703750887467</v>
       </c>
       <c r="R19" t="n">
         <v>2.216976305709413</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525969</v>
       </c>
       <c r="T19" t="n">
         <v>0.2106710197499846</v>
@@ -32466,13 +32466,13 @@
         <v>0.1099192319448225</v>
       </c>
       <c r="H20" t="n">
-        <v>1.125710334154913</v>
+        <v>1.125710334154914</v>
       </c>
       <c r="I20" t="n">
         <v>4.237661189552773</v>
       </c>
       <c r="J20" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276887</v>
       </c>
       <c r="K20" t="n">
         <v>13.98213850050122</v>
@@ -32481,7 +32481,7 @@
         <v>17.34607919513259</v>
       </c>
       <c r="M20" t="n">
-        <v>19.30085533623132</v>
+        <v>19.30085533623133</v>
       </c>
       <c r="N20" t="n">
         <v>19.61316335399455</v>
@@ -32490,19 +32490,19 @@
         <v>18.52015399134322</v>
       </c>
       <c r="P20" t="n">
-        <v>15.80652295270541</v>
+        <v>15.80652295270542</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.87004045868145</v>
+        <v>11.87004045868146</v>
       </c>
       <c r="R20" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653961</v>
       </c>
       <c r="S20" t="n">
-        <v>2.504784497942644</v>
+        <v>2.504784497942645</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4811714378384606</v>
+        <v>0.4811714378384607</v>
       </c>
       <c r="U20" t="n">
         <v>0.008793538555585796</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05881197395991142</v>
+        <v>0.05881197395991143</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707237</v>
       </c>
       <c r="I21" t="n">
         <v>2.024885945549582</v>
@@ -32554,16 +32554,16 @@
         <v>5.55644180294058</v>
       </c>
       <c r="K21" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254647</v>
       </c>
       <c r="L21" t="n">
-        <v>12.76967881967287</v>
+        <v>12.76967881967288</v>
       </c>
       <c r="M21" t="n">
         <v>14.90161287571966</v>
       </c>
       <c r="N21" t="n">
-        <v>15.29601422740696</v>
+        <v>15.29601422740697</v>
       </c>
       <c r="O21" t="n">
         <v>13.99286469913735</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04930598334574109</v>
+        <v>0.0493059833457411</v>
       </c>
       <c r="H22" t="n">
-        <v>0.438375015564862</v>
+        <v>0.4383750155648621</v>
       </c>
       <c r="I22" t="n">
-        <v>1.482765390070105</v>
+        <v>1.482765390070106</v>
       </c>
       <c r="J22" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543896</v>
       </c>
       <c r="K22" t="n">
         <v>5.728458792350646</v>
       </c>
       <c r="L22" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014875001</v>
       </c>
       <c r="M22" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551034</v>
       </c>
       <c r="N22" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535096</v>
       </c>
       <c r="O22" t="n">
-        <v>6.969176627814389</v>
+        <v>6.96917662781439</v>
       </c>
       <c r="P22" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561267</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.128703750887466</v>
+        <v>4.128703750887467</v>
       </c>
       <c r="R22" t="n">
         <v>2.216976305709413</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525969</v>
       </c>
       <c r="T22" t="n">
         <v>0.2106710197499846</v>
@@ -32703,13 +32703,13 @@
         <v>0.1099192319448225</v>
       </c>
       <c r="H23" t="n">
-        <v>1.125710334154913</v>
+        <v>1.125710334154914</v>
       </c>
       <c r="I23" t="n">
         <v>4.237661189552773</v>
       </c>
       <c r="J23" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276887</v>
       </c>
       <c r="K23" t="n">
         <v>13.98213850050122</v>
@@ -32718,7 +32718,7 @@
         <v>17.34607919513259</v>
       </c>
       <c r="M23" t="n">
-        <v>19.30085533623132</v>
+        <v>19.30085533623133</v>
       </c>
       <c r="N23" t="n">
         <v>19.61316335399455</v>
@@ -32727,19 +32727,19 @@
         <v>18.52015399134322</v>
       </c>
       <c r="P23" t="n">
-        <v>15.80652295270541</v>
+        <v>15.80652295270542</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.87004045868145</v>
+        <v>11.87004045868146</v>
       </c>
       <c r="R23" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653961</v>
       </c>
       <c r="S23" t="n">
-        <v>2.504784497942644</v>
+        <v>2.504784497942645</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4811714378384606</v>
+        <v>0.4811714378384607</v>
       </c>
       <c r="U23" t="n">
         <v>0.008793538555585796</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05881197395991142</v>
+        <v>0.05881197395991143</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707237</v>
       </c>
       <c r="I24" t="n">
         <v>2.024885945549582</v>
@@ -32791,16 +32791,16 @@
         <v>5.55644180294058</v>
       </c>
       <c r="K24" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254647</v>
       </c>
       <c r="L24" t="n">
-        <v>12.76967881967287</v>
+        <v>12.76967881967288</v>
       </c>
       <c r="M24" t="n">
         <v>14.90161287571966</v>
       </c>
       <c r="N24" t="n">
-        <v>15.29601422740696</v>
+        <v>15.29601422740697</v>
       </c>
       <c r="O24" t="n">
         <v>13.99286469913735</v>
@@ -32858,43 +32858,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04930598334574109</v>
+        <v>0.0493059833457411</v>
       </c>
       <c r="H25" t="n">
-        <v>0.438375015564862</v>
+        <v>0.4383750155648621</v>
       </c>
       <c r="I25" t="n">
-        <v>1.482765390070105</v>
+        <v>1.482765390070106</v>
       </c>
       <c r="J25" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543896</v>
       </c>
       <c r="K25" t="n">
         <v>5.728458792350646</v>
       </c>
       <c r="L25" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014875001</v>
       </c>
       <c r="M25" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551034</v>
       </c>
       <c r="N25" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535096</v>
       </c>
       <c r="O25" t="n">
-        <v>6.969176627814389</v>
+        <v>6.96917662781439</v>
       </c>
       <c r="P25" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561267</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.128703750887466</v>
+        <v>4.128703750887467</v>
       </c>
       <c r="R25" t="n">
         <v>2.216976305709413</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525969</v>
       </c>
       <c r="T25" t="n">
         <v>0.2106710197499846</v>
@@ -32940,13 +32940,13 @@
         <v>0.1099192319448225</v>
       </c>
       <c r="H26" t="n">
-        <v>1.125710334154913</v>
+        <v>1.125710334154914</v>
       </c>
       <c r="I26" t="n">
         <v>4.237661189552773</v>
       </c>
       <c r="J26" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276887</v>
       </c>
       <c r="K26" t="n">
         <v>13.98213850050122</v>
@@ -32955,7 +32955,7 @@
         <v>17.34607919513259</v>
       </c>
       <c r="M26" t="n">
-        <v>19.30085533623132</v>
+        <v>19.30085533623133</v>
       </c>
       <c r="N26" t="n">
         <v>19.61316335399455</v>
@@ -32964,19 +32964,19 @@
         <v>18.52015399134322</v>
       </c>
       <c r="P26" t="n">
-        <v>15.80652295270541</v>
+        <v>15.80652295270542</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.87004045868145</v>
+        <v>11.87004045868146</v>
       </c>
       <c r="R26" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653961</v>
       </c>
       <c r="S26" t="n">
-        <v>2.504784497942644</v>
+        <v>2.504784497942645</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4811714378384606</v>
+        <v>0.4811714378384607</v>
       </c>
       <c r="U26" t="n">
         <v>0.008793538555585796</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05881197395991142</v>
+        <v>0.05881197395991143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707237</v>
       </c>
       <c r="I27" t="n">
         <v>2.024885945549582</v>
@@ -33028,16 +33028,16 @@
         <v>5.55644180294058</v>
       </c>
       <c r="K27" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254647</v>
       </c>
       <c r="L27" t="n">
-        <v>12.76967881967287</v>
+        <v>12.76967881967288</v>
       </c>
       <c r="M27" t="n">
         <v>14.90161287571966</v>
       </c>
       <c r="N27" t="n">
-        <v>15.29601422740696</v>
+        <v>15.29601422740697</v>
       </c>
       <c r="O27" t="n">
         <v>13.99286469913735</v>
@@ -33095,43 +33095,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04930598334574109</v>
+        <v>0.0493059833457411</v>
       </c>
       <c r="H28" t="n">
-        <v>0.438375015564862</v>
+        <v>0.4383750155648621</v>
       </c>
       <c r="I28" t="n">
-        <v>1.482765390070105</v>
+        <v>1.482765390070106</v>
       </c>
       <c r="J28" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543896</v>
       </c>
       <c r="K28" t="n">
         <v>5.728458792350646</v>
       </c>
       <c r="L28" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014875001</v>
       </c>
       <c r="M28" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551034</v>
       </c>
       <c r="N28" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535096</v>
       </c>
       <c r="O28" t="n">
-        <v>6.969176627814389</v>
+        <v>6.96917662781439</v>
       </c>
       <c r="P28" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561267</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.128703750887466</v>
+        <v>4.128703750887467</v>
       </c>
       <c r="R28" t="n">
         <v>2.216976305709413</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525969</v>
       </c>
       <c r="T28" t="n">
         <v>0.2106710197499846</v>
@@ -33177,13 +33177,13 @@
         <v>0.1099192319448225</v>
       </c>
       <c r="H29" t="n">
-        <v>1.125710334154913</v>
+        <v>1.125710334154914</v>
       </c>
       <c r="I29" t="n">
         <v>4.237661189552773</v>
       </c>
       <c r="J29" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276887</v>
       </c>
       <c r="K29" t="n">
         <v>13.98213850050122</v>
@@ -33192,7 +33192,7 @@
         <v>17.34607919513259</v>
       </c>
       <c r="M29" t="n">
-        <v>19.30085533623132</v>
+        <v>19.30085533623133</v>
       </c>
       <c r="N29" t="n">
         <v>19.61316335399455</v>
@@ -33201,19 +33201,19 @@
         <v>18.52015399134322</v>
       </c>
       <c r="P29" t="n">
-        <v>15.80652295270541</v>
+        <v>15.80652295270542</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.87004045868145</v>
+        <v>11.87004045868146</v>
       </c>
       <c r="R29" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653961</v>
       </c>
       <c r="S29" t="n">
-        <v>2.504784497942644</v>
+        <v>2.504784497942645</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4811714378384606</v>
+        <v>0.4811714378384607</v>
       </c>
       <c r="U29" t="n">
         <v>0.008793538555585796</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05881197395991142</v>
+        <v>0.05881197395991143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707237</v>
       </c>
       <c r="I30" t="n">
         <v>2.024885945549582</v>
@@ -33265,16 +33265,16 @@
         <v>5.55644180294058</v>
       </c>
       <c r="K30" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254647</v>
       </c>
       <c r="L30" t="n">
-        <v>12.76967881967287</v>
+        <v>12.76967881967288</v>
       </c>
       <c r="M30" t="n">
         <v>14.90161287571966</v>
       </c>
       <c r="N30" t="n">
-        <v>15.29601422740696</v>
+        <v>15.29601422740697</v>
       </c>
       <c r="O30" t="n">
         <v>13.99286469913735</v>
@@ -33332,43 +33332,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04930598334574109</v>
+        <v>0.0493059833457411</v>
       </c>
       <c r="H31" t="n">
-        <v>0.438375015564862</v>
+        <v>0.4383750155648621</v>
       </c>
       <c r="I31" t="n">
-        <v>1.482765390070105</v>
+        <v>1.482765390070106</v>
       </c>
       <c r="J31" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543896</v>
       </c>
       <c r="K31" t="n">
         <v>5.728458792350646</v>
       </c>
       <c r="L31" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014875001</v>
       </c>
       <c r="M31" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551034</v>
       </c>
       <c r="N31" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535096</v>
       </c>
       <c r="O31" t="n">
-        <v>6.969176627814389</v>
+        <v>6.96917662781439</v>
       </c>
       <c r="P31" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561267</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.128703750887466</v>
+        <v>4.128703750887467</v>
       </c>
       <c r="R31" t="n">
         <v>2.216976305709413</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525969</v>
       </c>
       <c r="T31" t="n">
         <v>0.2106710197499846</v>
@@ -33414,13 +33414,13 @@
         <v>0.1099192319448225</v>
       </c>
       <c r="H32" t="n">
-        <v>1.125710334154913</v>
+        <v>1.125710334154914</v>
       </c>
       <c r="I32" t="n">
         <v>4.237661189552773</v>
       </c>
       <c r="J32" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276887</v>
       </c>
       <c r="K32" t="n">
         <v>13.98213850050122</v>
@@ -33429,7 +33429,7 @@
         <v>17.34607919513259</v>
       </c>
       <c r="M32" t="n">
-        <v>19.30085533623132</v>
+        <v>19.30085533623133</v>
       </c>
       <c r="N32" t="n">
         <v>19.61316335399455</v>
@@ -33438,19 +33438,19 @@
         <v>18.52015399134322</v>
       </c>
       <c r="P32" t="n">
-        <v>15.80652295270541</v>
+        <v>15.80652295270542</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.87004045868145</v>
+        <v>11.87004045868146</v>
       </c>
       <c r="R32" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653961</v>
       </c>
       <c r="S32" t="n">
-        <v>2.504784497942644</v>
+        <v>2.504784497942645</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4811714378384606</v>
+        <v>0.4811714378384607</v>
       </c>
       <c r="U32" t="n">
         <v>0.008793538555585796</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05881197395991142</v>
+        <v>0.05881197395991143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707237</v>
       </c>
       <c r="I33" t="n">
         <v>2.024885945549582</v>
@@ -33502,16 +33502,16 @@
         <v>5.55644180294058</v>
       </c>
       <c r="K33" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254647</v>
       </c>
       <c r="L33" t="n">
-        <v>12.76967881967287</v>
+        <v>12.76967881967288</v>
       </c>
       <c r="M33" t="n">
         <v>14.90161287571966</v>
       </c>
       <c r="N33" t="n">
-        <v>15.29601422740696</v>
+        <v>15.29601422740697</v>
       </c>
       <c r="O33" t="n">
         <v>13.99286469913735</v>
@@ -33569,43 +33569,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04930598334574109</v>
+        <v>0.0493059833457411</v>
       </c>
       <c r="H34" t="n">
-        <v>0.438375015564862</v>
+        <v>0.4383750155648621</v>
       </c>
       <c r="I34" t="n">
-        <v>1.482765390070105</v>
+        <v>1.482765390070106</v>
       </c>
       <c r="J34" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543896</v>
       </c>
       <c r="K34" t="n">
         <v>5.728458792350646</v>
       </c>
       <c r="L34" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014875001</v>
       </c>
       <c r="M34" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551034</v>
       </c>
       <c r="N34" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535096</v>
       </c>
       <c r="O34" t="n">
-        <v>6.969176627814389</v>
+        <v>6.96917662781439</v>
       </c>
       <c r="P34" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561267</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.128703750887466</v>
+        <v>4.128703750887467</v>
       </c>
       <c r="R34" t="n">
         <v>2.216976305709413</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525969</v>
       </c>
       <c r="T34" t="n">
         <v>0.2106710197499846</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1099192319448225</v>
+        <v>0.1099192319448224</v>
       </c>
       <c r="H35" t="n">
         <v>1.125710334154913</v>
       </c>
       <c r="I35" t="n">
-        <v>4.237661189552773</v>
+        <v>4.237661189552772</v>
       </c>
       <c r="J35" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276883</v>
       </c>
       <c r="K35" t="n">
         <v>13.98213850050122</v>
@@ -33681,7 +33681,7 @@
         <v>11.87004045868145</v>
       </c>
       <c r="R35" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653959</v>
       </c>
       <c r="S35" t="n">
         <v>2.504784497942644</v>
@@ -33690,7 +33690,7 @@
         <v>0.4811714378384606</v>
       </c>
       <c r="U35" t="n">
-        <v>0.008793538555585796</v>
+        <v>0.008793538555585794</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,16 +33730,16 @@
         <v>0.05881197395991142</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707235</v>
       </c>
       <c r="I36" t="n">
         <v>2.024885945549582</v>
       </c>
       <c r="J36" t="n">
-        <v>5.55644180294058</v>
+        <v>5.556441802940579</v>
       </c>
       <c r="K36" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254643</v>
       </c>
       <c r="L36" t="n">
         <v>12.76967881967287</v>
@@ -33751,16 +33751,16 @@
         <v>15.29601422740696</v>
       </c>
       <c r="O36" t="n">
-        <v>13.99286469913735</v>
+        <v>13.99286469913734</v>
       </c>
       <c r="P36" t="n">
         <v>11.23050755380098</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.507296886531853</v>
+        <v>7.507296886531851</v>
       </c>
       <c r="R36" t="n">
-        <v>3.651501330598713</v>
+        <v>3.651501330598712</v>
       </c>
       <c r="S36" t="n">
         <v>1.092406621579933</v>
@@ -33815,40 +33815,40 @@
         <v>1.482765390070105</v>
       </c>
       <c r="J37" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543894</v>
       </c>
       <c r="K37" t="n">
-        <v>5.728458792350646</v>
+        <v>5.728458792350645</v>
       </c>
       <c r="L37" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014874999</v>
       </c>
       <c r="M37" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551031</v>
       </c>
       <c r="N37" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535094</v>
       </c>
       <c r="O37" t="n">
-        <v>6.969176627814389</v>
+        <v>6.969176627814388</v>
       </c>
       <c r="P37" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561265</v>
       </c>
       <c r="Q37" t="n">
         <v>4.128703750887466</v>
       </c>
       <c r="R37" t="n">
-        <v>2.216976305709413</v>
+        <v>2.216976305709412</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525966</v>
       </c>
       <c r="T37" t="n">
         <v>0.2106710197499846</v>
       </c>
       <c r="U37" t="n">
-        <v>0.002689417273404063</v>
+        <v>0.002689417273404062</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1099192319448225</v>
+        <v>0.1099192319448224</v>
       </c>
       <c r="H38" t="n">
         <v>1.125710334154913</v>
       </c>
       <c r="I38" t="n">
-        <v>4.237661189552773</v>
+        <v>4.237661189552772</v>
       </c>
       <c r="J38" t="n">
-        <v>9.329257412276885</v>
+        <v>9.329257412276883</v>
       </c>
       <c r="K38" t="n">
         <v>13.98213850050122</v>
@@ -33918,7 +33918,7 @@
         <v>11.87004045868145</v>
       </c>
       <c r="R38" t="n">
-        <v>6.90471395365396</v>
+        <v>6.904713953653959</v>
       </c>
       <c r="S38" t="n">
         <v>2.504784497942644</v>
@@ -33927,7 +33927,7 @@
         <v>0.4811714378384606</v>
       </c>
       <c r="U38" t="n">
-        <v>0.008793538555585796</v>
+        <v>0.008793538555585794</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,16 +33967,16 @@
         <v>0.05881197395991142</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5679998537707236</v>
+        <v>0.5679998537707235</v>
       </c>
       <c r="I39" t="n">
         <v>2.024885945549582</v>
       </c>
       <c r="J39" t="n">
-        <v>5.55644180294058</v>
+        <v>5.556441802940579</v>
       </c>
       <c r="K39" t="n">
-        <v>9.496844058254645</v>
+        <v>9.496844058254643</v>
       </c>
       <c r="L39" t="n">
         <v>12.76967881967287</v>
@@ -33988,16 +33988,16 @@
         <v>15.29601422740696</v>
       </c>
       <c r="O39" t="n">
-        <v>13.99286469913735</v>
+        <v>13.99286469913734</v>
       </c>
       <c r="P39" t="n">
         <v>11.23050755380098</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.507296886531853</v>
+        <v>7.507296886531851</v>
       </c>
       <c r="R39" t="n">
-        <v>3.651501330598713</v>
+        <v>3.651501330598712</v>
       </c>
       <c r="S39" t="n">
         <v>1.092406621579933</v>
@@ -34052,40 +34052,40 @@
         <v>1.482765390070105</v>
       </c>
       <c r="J40" t="n">
-        <v>3.485933022543895</v>
+        <v>3.485933022543894</v>
       </c>
       <c r="K40" t="n">
-        <v>5.728458792350646</v>
+        <v>5.728458792350645</v>
       </c>
       <c r="L40" t="n">
-        <v>7.330455014875</v>
+        <v>7.330455014874999</v>
       </c>
       <c r="M40" t="n">
-        <v>7.728937007551033</v>
+        <v>7.728937007551031</v>
       </c>
       <c r="N40" t="n">
-        <v>7.545160160535095</v>
+        <v>7.545160160535094</v>
       </c>
       <c r="O40" t="n">
-        <v>6.969176627814389</v>
+        <v>6.969176627814388</v>
       </c>
       <c r="P40" t="n">
-        <v>5.963334567561266</v>
+        <v>5.963334567561265</v>
       </c>
       <c r="Q40" t="n">
         <v>4.128703750887466</v>
       </c>
       <c r="R40" t="n">
-        <v>2.216976305709413</v>
+        <v>2.216976305709412</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8592688188525968</v>
+        <v>0.8592688188525966</v>
       </c>
       <c r="T40" t="n">
         <v>0.2106710197499846</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002689417273404063</v>
+        <v>0.002689417273404062</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136652</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>63.99384232608278</v>
+        <v>136.1206420964743</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>245.0556443432579</v>
       </c>
       <c r="M12" t="n">
         <v>267.8979041910021</v>
       </c>
       <c r="N12" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>265.2589395314224</v>
       </c>
       <c r="P12" t="n">
-        <v>195.7188687794079</v>
+        <v>146.4343288567606</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35582,10 +35582,10 @@
         <v>51.67733253976369</v>
       </c>
       <c r="O13" t="n">
-        <v>31.55430454185406</v>
+        <v>31.55430454185407</v>
       </c>
       <c r="P13" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454755</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.879341244136753</v>
+        <v>1.879341244136652</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>267.8979041910021</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>61.38270318413876</v>
       </c>
       <c r="P15" t="n">
-        <v>138.9855137204982</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>77.60281053635943</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35819,10 +35819,10 @@
         <v>51.67733253976369</v>
       </c>
       <c r="O16" t="n">
-        <v>31.55430454185406</v>
+        <v>31.55430454185407</v>
       </c>
       <c r="P16" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454755</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>118.0377000266855</v>
+        <v>118.0377000266854</v>
       </c>
       <c r="L17" t="n">
         <v>199.2408787755958</v>
@@ -35904,7 +35904,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136652</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.809850476682723</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>14.65706676223286</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>245.0556443432579</v>
       </c>
       <c r="M18" t="n">
         <v>267.8979041910021</v>
@@ -35980,10 +35980,10 @@
         <v>265.2589395314224</v>
       </c>
       <c r="P18" t="n">
-        <v>195.7188687794079</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>59.18399184939997</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36056,10 +36056,10 @@
         <v>51.67733253976369</v>
       </c>
       <c r="O19" t="n">
-        <v>31.55430454185406</v>
+        <v>31.55430454185407</v>
       </c>
       <c r="P19" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454755</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>118.0377000266854</v>
       </c>
       <c r="L20" t="n">
-        <v>199.2408787755959</v>
+        <v>199.2408787755958</v>
       </c>
       <c r="M20" t="n">
         <v>238.4681556017911</v>
@@ -36141,7 +36141,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136652</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.809850476682723</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>136.1206420964743</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>267.8979041910021</v>
+        <v>254.2889359807254</v>
       </c>
       <c r="N21" t="n">
         <v>267.8979041910021</v>
       </c>
       <c r="O21" t="n">
-        <v>110.7194787479888</v>
+        <v>265.2589395314224</v>
       </c>
       <c r="P21" t="n">
         <v>195.7188687794079</v>
@@ -36293,10 +36293,10 @@
         <v>51.67733253976369</v>
       </c>
       <c r="O22" t="n">
-        <v>31.55430454185406</v>
+        <v>31.55430454185407</v>
       </c>
       <c r="P22" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454755</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136652</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>136.1206420964743</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>245.0556443432579</v>
       </c>
       <c r="M24" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>267.8979041910021</v>
@@ -36454,10 +36454,10 @@
         <v>265.2589395314224</v>
       </c>
       <c r="P24" t="n">
-        <v>182.1099005691313</v>
+        <v>146.4343288567606</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.60281053635943</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36530,10 +36530,10 @@
         <v>51.67733253976369</v>
       </c>
       <c r="O25" t="n">
-        <v>31.55430454185406</v>
+        <v>31.55430454185407</v>
       </c>
       <c r="P25" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454755</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136652</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>267.8979041910021</v>
       </c>
       <c r="N27" t="n">
-        <v>267.8979041910021</v>
+        <v>9.233291637467504</v>
       </c>
       <c r="O27" t="n">
         <v>265.2589395314224</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>195.7188687794079</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.65706676223284</v>
+        <v>77.60281053635943</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36767,10 +36767,10 @@
         <v>51.67733253976369</v>
       </c>
       <c r="O28" t="n">
-        <v>31.55430454185406</v>
+        <v>31.55430454185407</v>
       </c>
       <c r="P28" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454755</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136652</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>136.1206420964743</v>
       </c>
       <c r="L30" t="n">
-        <v>195.7711044206106</v>
+        <v>245.0556443432579</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>218.6133642683548</v>
       </c>
       <c r="N30" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>265.2589395314224</v>
@@ -37004,10 +37004,10 @@
         <v>51.67733253976369</v>
       </c>
       <c r="O31" t="n">
-        <v>31.55430454185406</v>
+        <v>31.55430454185407</v>
       </c>
       <c r="P31" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454755</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136652</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.809850476682723</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>136.1206420964743</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>245.0556443432579</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="N33" t="n">
         <v>267.8979041910021</v>
       </c>
       <c r="O33" t="n">
-        <v>133.5617385957329</v>
+        <v>265.2589395314224</v>
       </c>
       <c r="P33" t="n">
-        <v>195.7188687794079</v>
+        <v>14.65706676223284</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.60281053635943</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37241,10 +37241,10 @@
         <v>51.67733253976369</v>
       </c>
       <c r="O34" t="n">
-        <v>31.55430454185406</v>
+        <v>31.55430454185407</v>
       </c>
       <c r="P34" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454755</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136649</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>4.809850476682723</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>245.0556443432579</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>267.8979041910021</v>
       </c>
       <c r="N36" t="n">
-        <v>9.233291637467504</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="O36" t="n">
         <v>265.2589395314224</v>
@@ -37405,7 +37405,7 @@
         <v>195.7188687794079</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.60281053635943</v>
+        <v>59.18399184939997</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37475,13 +37475,13 @@
         <v>47.31281396939162</v>
       </c>
       <c r="N37" t="n">
-        <v>51.67733253976369</v>
+        <v>51.67733253976368</v>
       </c>
       <c r="O37" t="n">
         <v>31.55430454185406</v>
       </c>
       <c r="P37" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454753</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>106.3722353689185</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.879341244136651</v>
+        <v>1.879341244136982</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>136.1206420964743</v>
       </c>
       <c r="L39" t="n">
-        <v>245.0556443432579</v>
+        <v>118.1682938842511</v>
       </c>
       <c r="M39" t="n">
-        <v>9.233291637467563</v>
+        <v>267.8979041910021</v>
       </c>
       <c r="N39" t="n">
-        <v>267.8979041910021</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>265.2589395314224</v>
@@ -37712,13 +37712,13 @@
         <v>47.31281396939162</v>
       </c>
       <c r="N40" t="n">
-        <v>51.67733253976369</v>
+        <v>51.67733253976368</v>
       </c>
       <c r="O40" t="n">
         <v>31.55430454185406</v>
       </c>
       <c r="P40" t="n">
-        <v>3.241893832454754</v>
+        <v>3.241893832454753</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.809850476682723</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>136.1206420964743</v>
       </c>
       <c r="L42" t="n">
-        <v>110.7194787479888</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>267.8979041910021</v>
+        <v>195.7711044206106</v>
       </c>
       <c r="N42" t="n">
         <v>267.8979041910021</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>265.2589395314224</v>
       </c>
       <c r="P42" t="n">
         <v>195.7188687794079</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.60281053635943</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
